--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/SABR/LPM Caplet Bootstrap v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/SABR/LPM Caplet Bootstrap v2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\SABR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\SABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E439124-80F5-4834-8E48-DCA6EA343173}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="10080" windowHeight="6795" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="285" windowWidth="26370" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="26" r:id="rId1"/>
@@ -18,7 +19,15 @@
     <sheet name="Fixed Strike Bootstrap" sheetId="28" r:id="rId4"/>
     <sheet name="Publication" sheetId="30" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
   <si>
     <t>Strike</t>
   </si>
@@ -303,9 +312,6 @@
     <t>Instrument</t>
   </si>
   <si>
-    <t>AUD-LIBOR-BBA-3M</t>
-  </si>
-  <si>
     <t>IndexName</t>
   </si>
   <si>
@@ -430,6 +436,12 @@
   </si>
   <si>
     <t>DecimalRate</t>
+  </si>
+  <si>
+    <t>AUD-XIBOR-3M</t>
+  </si>
+  <si>
+    <t>This curve does not solve.</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1651,6 +1663,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1858,7 +1879,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2039,33 +2060,6 @@
     <xf numFmtId="14" fontId="6" fillId="46" borderId="24" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="42" fillId="47" borderId="25" xfId="85" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2102,13 +2096,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="25" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="25" xfId="85" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="46" borderId="46" xfId="104" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2555,187 +2579,187 @@
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>0.16400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16667692000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16964066</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17250879</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16316153999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13879231</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13813874000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17251163999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20578753</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23602302999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2139636</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19190417000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16984473999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14907535999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15636460999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16365384999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17102319999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.17831245000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.167513</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.15659487999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14567675999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.13521564999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.13441115000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13359779999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.13278445999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.13198878999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13118429000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.13037093999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.12953991000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.12871488</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.12648303</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1241776</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12194575000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1197139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.11748205</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.11525021000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.11299383</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.11078651</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.10855466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.10629827999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.10404191</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.10186874999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.10274553</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.10363195</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.10451837999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.10538553000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.10626231</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.10714873</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.10803515</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.10895048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.10978872000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.11069440999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1115712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.11244799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.11332477000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.11420155999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.11507834</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.11595513</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3179,127 +3203,127 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>8.82989E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.13022E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4392309999999993E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.723772E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10141534000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10559296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10977058000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1133807</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11297429</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11258129</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11216149</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11171635000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11105087</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11039986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10974161</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1093316</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11034486</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11134711</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11234936</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11307459</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11219505</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.11133463</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11046465</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.10958511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.10871512999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.10784516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.10697518</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.10628565</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.10690852000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.10753139</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.10815426</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.10879766</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.10942053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1100434</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.11066627</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.11129598</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.11192568999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.11254172</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.11316459</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1137943</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.11442402</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,7 +4436,7 @@
     <row r="32" spans="2:13">
       <c r="B32" s="21" t="str">
         <f ca="1">"Last Update "&amp;TEXT(TODAY(),"dd-mmm-yy")</f>
-        <v>Last Update 17-Feb-18</v>
+        <v>Last Update 02-Jul-19</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -4458,8 +4482,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="C2:AC134"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4490,37 +4514,37 @@
   <sheetData>
     <row r="2" spans="3:29" ht="13.5" thickBot="1"/>
     <row r="3" spans="3:29" ht="13.5" thickBot="1">
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="O3" s="74" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
+      <c r="O3" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="76"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="89"/>
     </row>
     <row r="4" spans="3:29" ht="13.5" thickBot="1"/>
     <row r="5" spans="3:29" ht="13.5" thickBot="1">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="P5" s="95" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="P5" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
     </row>
     <row r="7" spans="3:29" ht="13.5" thickBot="1">
       <c r="I7" t="s">
@@ -4552,17 +4576,17 @@
       <c r="L8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="80" t="s">
+      <c r="P8" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="82"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="95"/>
       <c r="AB8" s="5" t="s">
         <v>22</v>
       </c>
@@ -4657,35 +4681,35 @@
       <c r="O10" s="34">
         <v>0</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="76">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="Q10" s="86">
+      <c r="Q10" s="77">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="R10" s="86">
+      <c r="R10" s="77">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="S10" s="86">
+      <c r="S10" s="77">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="T10" s="86">
+      <c r="T10" s="77">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="U10" s="86">
+      <c r="U10" s="77">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="V10" s="86">
+      <c r="V10" s="77">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="W10" s="86">
+      <c r="W10" s="77">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="X10" s="87">
+      <c r="X10" s="78">
         <v>8.8200000000000001E-2</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB10" s="29">
         <v>39507</v>
@@ -4719,35 +4743,35 @@
       <c r="O11" s="35">
         <v>8</v>
       </c>
-      <c r="P11" s="88">
+      <c r="P11" s="79">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="Q11" s="89">
+      <c r="Q11" s="80">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="R11" s="89">
+      <c r="R11" s="80">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="S11" s="89">
+      <c r="S11" s="80">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="T11" s="89">
+      <c r="T11" s="80">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="U11" s="89">
+      <c r="U11" s="80">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="V11" s="89">
+      <c r="V11" s="80">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="W11" s="89">
+      <c r="W11" s="80">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="X11" s="90">
+      <c r="X11" s="81">
         <v>8.8200000000000001E-2</v>
       </c>
       <c r="Y11" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB11" s="29">
         <v>39598</v>
@@ -4781,35 +4805,35 @@
       <c r="O12" s="35">
         <v>99</v>
       </c>
-      <c r="P12" s="88">
+      <c r="P12" s="79">
         <v>9.1199999999999989E-2</v>
       </c>
-      <c r="Q12" s="89">
+      <c r="Q12" s="80">
         <v>9.1199999999999989E-2</v>
       </c>
-      <c r="R12" s="89">
+      <c r="R12" s="80">
         <v>9.1199999999999989E-2</v>
       </c>
-      <c r="S12" s="89">
+      <c r="S12" s="80">
         <v>9.1199999999999989E-2</v>
       </c>
-      <c r="T12" s="89">
+      <c r="T12" s="80">
         <v>9.1199999999999989E-2</v>
       </c>
-      <c r="U12" s="89">
+      <c r="U12" s="80">
         <v>9.1199999999999989E-2</v>
       </c>
-      <c r="V12" s="89">
+      <c r="V12" s="80">
         <v>9.1199999999999989E-2</v>
       </c>
-      <c r="W12" s="89">
+      <c r="W12" s="80">
         <v>9.1199999999999989E-2</v>
       </c>
-      <c r="X12" s="90">
+      <c r="X12" s="81">
         <v>9.1199999999999989E-2</v>
       </c>
       <c r="Y12" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="29">
         <v>39689</v>
@@ -4843,35 +4867,35 @@
       <c r="O13" s="35">
         <v>190</v>
       </c>
-      <c r="P13" s="88">
+      <c r="P13" s="79">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="Q13" s="89">
+      <c r="Q13" s="80">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="R13" s="89">
+      <c r="R13" s="80">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="S13" s="89">
+      <c r="S13" s="80">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="T13" s="89">
+      <c r="T13" s="80">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="U13" s="89">
+      <c r="U13" s="80">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="V13" s="89">
+      <c r="V13" s="80">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="W13" s="89">
+      <c r="W13" s="80">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="X13" s="90">
+      <c r="X13" s="81">
         <v>9.4299999999999995E-2</v>
       </c>
       <c r="Y13" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB13" s="29">
         <v>39780</v>
@@ -4905,35 +4929,35 @@
       <c r="O14" s="35">
         <v>281</v>
       </c>
-      <c r="P14" s="88">
+      <c r="P14" s="79">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="Q14" s="89">
+      <c r="Q14" s="80">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="R14" s="89">
+      <c r="R14" s="80">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="S14" s="89">
+      <c r="S14" s="80">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="T14" s="89">
+      <c r="T14" s="80">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="U14" s="89">
+      <c r="U14" s="80">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="V14" s="89">
+      <c r="V14" s="80">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="W14" s="89">
+      <c r="W14" s="80">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="X14" s="90">
+      <c r="X14" s="81">
         <v>9.7100000000000006E-2</v>
       </c>
       <c r="Y14" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB14" s="29">
         <v>39871</v>
@@ -4967,35 +4991,35 @@
       <c r="O15" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="P15" s="88">
+      <c r="P15" s="79">
         <v>0.10339999999999999</v>
       </c>
-      <c r="Q15" s="89">
+      <c r="Q15" s="80">
         <v>0.10339999999999999</v>
       </c>
-      <c r="R15" s="89">
+      <c r="R15" s="80">
         <v>0.10339999999999999</v>
       </c>
-      <c r="S15" s="89">
+      <c r="S15" s="80">
         <v>0.10339999999999999</v>
       </c>
-      <c r="T15" s="89">
+      <c r="T15" s="80">
         <v>0.10339999999999999</v>
       </c>
-      <c r="U15" s="89">
+      <c r="U15" s="80">
         <v>0.10339999999999999</v>
       </c>
-      <c r="V15" s="89">
+      <c r="V15" s="80">
         <v>0.10339999999999999</v>
       </c>
-      <c r="W15" s="89">
+      <c r="W15" s="80">
         <v>0.10339999999999999</v>
       </c>
-      <c r="X15" s="90">
+      <c r="X15" s="81">
         <v>0.10339999999999999</v>
       </c>
       <c r="Y15" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB15" s="29">
         <v>39962</v>
@@ -5029,35 +5053,35 @@
       <c r="O16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="88">
+      <c r="P16" s="79">
         <v>0.1075</v>
       </c>
-      <c r="Q16" s="89">
+      <c r="Q16" s="80">
         <v>0.1075</v>
       </c>
-      <c r="R16" s="89">
+      <c r="R16" s="80">
         <v>0.1075</v>
       </c>
-      <c r="S16" s="89">
+      <c r="S16" s="80">
         <v>0.1075</v>
       </c>
-      <c r="T16" s="89">
+      <c r="T16" s="80">
         <v>0.1075</v>
       </c>
-      <c r="U16" s="89">
+      <c r="U16" s="80">
         <v>0.1075</v>
       </c>
-      <c r="V16" s="89">
+      <c r="V16" s="80">
         <v>0.1075</v>
       </c>
-      <c r="W16" s="89">
+      <c r="W16" s="80">
         <v>0.1075</v>
       </c>
-      <c r="X16" s="90">
+      <c r="X16" s="81">
         <v>0.1075</v>
       </c>
       <c r="Y16" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB16" s="29">
         <v>40056</v>
@@ -5091,35 +5115,35 @@
       <c r="O17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="P17" s="88">
+      <c r="P17" s="79">
         <v>0.1084</v>
       </c>
-      <c r="Q17" s="89">
+      <c r="Q17" s="80">
         <v>0.1084</v>
       </c>
-      <c r="R17" s="89">
+      <c r="R17" s="80">
         <v>0.1084</v>
       </c>
-      <c r="S17" s="89">
+      <c r="S17" s="80">
         <v>0.1084</v>
       </c>
-      <c r="T17" s="89">
+      <c r="T17" s="80">
         <v>0.1084</v>
       </c>
-      <c r="U17" s="89">
+      <c r="U17" s="80">
         <v>0.1084</v>
       </c>
-      <c r="V17" s="89">
+      <c r="V17" s="80">
         <v>0.1084</v>
       </c>
-      <c r="W17" s="89">
+      <c r="W17" s="80">
         <v>0.1084</v>
       </c>
-      <c r="X17" s="90">
+      <c r="X17" s="81">
         <v>0.1084</v>
       </c>
       <c r="Y17" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB17" s="29">
         <v>40147</v>
@@ -5153,35 +5177,35 @@
       <c r="O18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="88">
+      <c r="P18" s="79">
         <v>0.10929999999999999</v>
       </c>
-      <c r="Q18" s="89">
+      <c r="Q18" s="80">
         <v>0.10929999999999999</v>
       </c>
-      <c r="R18" s="89">
+      <c r="R18" s="80">
         <v>0.10929999999999999</v>
       </c>
-      <c r="S18" s="89">
+      <c r="S18" s="80">
         <v>0.10929999999999999</v>
       </c>
-      <c r="T18" s="89">
+      <c r="T18" s="80">
         <v>0.10929999999999999</v>
       </c>
-      <c r="U18" s="89">
+      <c r="U18" s="80">
         <v>0.10929999999999999</v>
       </c>
-      <c r="V18" s="89">
+      <c r="V18" s="80">
         <v>0.10929999999999999</v>
       </c>
-      <c r="W18" s="89">
+      <c r="W18" s="80">
         <v>0.10929999999999999</v>
       </c>
-      <c r="X18" s="90">
+      <c r="X18" s="81">
         <v>0.10929999999999999</v>
       </c>
       <c r="Y18" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB18" s="29">
         <v>40235</v>
@@ -5215,35 +5239,35 @@
       <c r="O19" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="88">
+      <c r="P19" s="79">
         <v>0.10949999999999999</v>
       </c>
-      <c r="Q19" s="89">
+      <c r="Q19" s="80">
         <v>0.10949999999999999</v>
       </c>
-      <c r="R19" s="89">
+      <c r="R19" s="80">
         <v>0.10949999999999999</v>
       </c>
-      <c r="S19" s="89">
+      <c r="S19" s="80">
         <v>0.10949999999999999</v>
       </c>
-      <c r="T19" s="89">
+      <c r="T19" s="80">
         <v>0.10949999999999999</v>
       </c>
-      <c r="U19" s="89">
+      <c r="U19" s="80">
         <v>0.10949999999999999</v>
       </c>
-      <c r="V19" s="89">
+      <c r="V19" s="80">
         <v>0.10949999999999999</v>
       </c>
-      <c r="W19" s="89">
+      <c r="W19" s="80">
         <v>0.10949999999999999</v>
       </c>
-      <c r="X19" s="90">
+      <c r="X19" s="81">
         <v>0.10949999999999999</v>
       </c>
       <c r="Y19" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB19" s="29">
         <v>40329</v>
@@ -5277,35 +5301,35 @@
       <c r="O20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="91">
+      <c r="P20" s="82">
         <v>0.1099</v>
       </c>
-      <c r="Q20" s="92">
+      <c r="Q20" s="83">
         <v>0.1099</v>
       </c>
-      <c r="R20" s="92">
+      <c r="R20" s="83">
         <v>0.1099</v>
       </c>
-      <c r="S20" s="92">
+      <c r="S20" s="83">
         <v>0.1099</v>
       </c>
-      <c r="T20" s="92">
+      <c r="T20" s="83">
         <v>0.1099</v>
       </c>
-      <c r="U20" s="92">
+      <c r="U20" s="83">
         <v>0.1099</v>
       </c>
-      <c r="V20" s="92">
+      <c r="V20" s="83">
         <v>0.1099</v>
       </c>
-      <c r="W20" s="92">
+      <c r="W20" s="83">
         <v>0.1099</v>
       </c>
-      <c r="X20" s="93">
+      <c r="X20" s="84">
         <v>0.1099</v>
       </c>
       <c r="Y20" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB20" s="29">
         <v>40420</v>
@@ -5385,9 +5409,9 @@
     </row>
     <row r="24" spans="3:29">
       <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="83">
+        <v>84</v>
+      </c>
+      <c r="D24" s="74">
         <v>0.16399999999999998</v>
       </c>
       <c r="H24" s="29">
@@ -5411,9 +5435,9 @@
     </row>
     <row r="25" spans="3:29">
       <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="83">
+        <v>93</v>
+      </c>
+      <c r="D25" s="74">
         <v>0.16399999999999998</v>
       </c>
       <c r="H25" s="29">
@@ -5437,9 +5461,9 @@
     </row>
     <row r="26" spans="3:29">
       <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="84">
+        <v>94</v>
+      </c>
+      <c r="D26" s="75">
         <v>0.17269999999999999</v>
       </c>
       <c r="H26" s="29">
@@ -5463,9 +5487,9 @@
     </row>
     <row r="27" spans="3:29">
       <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="84">
+        <v>95</v>
+      </c>
+      <c r="D27" s="75">
         <v>0.1447</v>
       </c>
       <c r="H27" s="29">
@@ -5489,9 +5513,9 @@
     </row>
     <row r="28" spans="3:29">
       <c r="C28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="84">
+        <v>97</v>
+      </c>
+      <c r="D28" s="75">
         <v>0.12789999999999999</v>
       </c>
       <c r="H28" s="29">
@@ -5515,9 +5539,9 @@
     </row>
     <row r="29" spans="3:29">
       <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="84">
+        <v>85</v>
+      </c>
+      <c r="D29" s="75">
         <v>0.1789</v>
       </c>
       <c r="H29" s="29">
@@ -5541,9 +5565,9 @@
     </row>
     <row r="30" spans="3:29">
       <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="84">
+        <v>86</v>
+      </c>
+      <c r="D30" s="75">
         <v>0.17987999999999998</v>
       </c>
       <c r="H30" s="29">
@@ -5567,9 +5591,9 @@
     </row>
     <row r="31" spans="3:29">
       <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="84">
+        <v>87</v>
+      </c>
+      <c r="D31" s="75">
         <v>0.17559999999999998</v>
       </c>
       <c r="H31" s="29">
@@ -5593,9 +5617,9 @@
     </row>
     <row r="32" spans="3:29">
       <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="84">
+        <v>88</v>
+      </c>
+      <c r="D32" s="75">
         <v>0.16928000000000001</v>
       </c>
       <c r="H32" s="29">
@@ -5619,9 +5643,9 @@
     </row>
     <row r="33" spans="3:29">
       <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="84">
+        <v>89</v>
+      </c>
+      <c r="D33" s="75">
         <v>0.15628</v>
       </c>
       <c r="H33" s="29">
@@ -5645,9 +5669,9 @@
     </row>
     <row r="34" spans="3:29">
       <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="84">
+        <v>90</v>
+      </c>
+      <c r="D34" s="75">
         <v>0.14185</v>
       </c>
       <c r="H34" s="29">
@@ -5671,9 +5695,9 @@
     </row>
     <row r="35" spans="3:29">
       <c r="C35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="84">
+        <v>91</v>
+      </c>
+      <c r="D35" s="75">
         <v>0.13108</v>
       </c>
       <c r="H35" s="29">
@@ -5697,9 +5721,9 @@
     </row>
     <row r="36" spans="3:29">
       <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="84">
+        <v>92</v>
+      </c>
+      <c r="D36" s="75">
         <v>0.13108</v>
       </c>
       <c r="H36" s="29">
@@ -5723,9 +5747,9 @@
     </row>
     <row r="37" spans="3:29">
       <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="84">
+        <v>96</v>
+      </c>
+      <c r="D37" s="75">
         <v>0.13108</v>
       </c>
       <c r="H37" s="29">
@@ -7197,8 +7221,8 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="C1:N156"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7281,14 +7305,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="13.5" thickBot="1">
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="3:10" ht="13.5" thickBot="1">
       <c r="C2" s="38" t="s">
@@ -7379,38 +7403,38 @@
         <v>61</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="H9" s="69" t="s">
         <v>61</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="3:10">
       <c r="C10" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="72" t="s">
-        <v>64</v>
-      </c>
       <c r="H10" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="72" t="s">
         <v>63</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="72" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="72" t="s">
         <v>33</v>
@@ -7418,44 +7442,44 @@
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="72" t="s">
-        <v>67</v>
-      </c>
       <c r="H12" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="72" t="s">
         <v>66</v>
-      </c>
-      <c r="I12" s="72" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="69" t="s">
-        <v>68</v>
-      </c>
       <c r="I13" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="72" t="s">
-        <v>70</v>
-      </c>
       <c r="H14" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="72" t="s">
         <v>69</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="3:10">
@@ -7474,98 +7498,98 @@
     </row>
     <row r="16" spans="3:10">
       <c r="C16" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="72" t="s">
-        <v>72</v>
-      </c>
       <c r="H16" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="72" t="s">
         <v>71</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="72" t="s">
-        <v>74</v>
-      </c>
       <c r="H17" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="72" t="s">
         <v>73</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="72" t="s">
-        <v>76</v>
-      </c>
       <c r="H18" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="72" t="s">
         <v>75</v>
-      </c>
-      <c r="I18" s="72" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="3:14">
       <c r="C19" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="72" t="s">
-        <v>78</v>
-      </c>
       <c r="H19" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="72" t="s">
         <v>77</v>
-      </c>
-      <c r="I19" s="72" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="72" t="s">
-        <v>80</v>
-      </c>
       <c r="H20" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="72" t="s">
         <v>79</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="3:14">
       <c r="C21" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="72" t="s">
-        <v>82</v>
-      </c>
       <c r="H21" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="72" t="s">
         <v>81</v>
-      </c>
-      <c r="I21" s="72" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="73">
         <f>D6</f>
         <v>39637</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="73">
         <f>I6</f>
@@ -7577,32 +7601,39 @@
         <v>55</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="69" t="s">
         <v>55</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="13.5" thickBot="1">
       <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="7" t="e">
         <f>_xll.HLV5r3.Financial.Cache.CreateCapFloorATMEngines(C5:D23,'Market Data'!C24:C37,'Market Data'!D24:D37,'Market Data'!H9:H134,'Market Data'!I9:I134)</f>
-        <v>ATM Bootstrap Engine</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="94" t="str">
+      <c r="I24" s="85" t="e">
         <f>_xll.HLV5r3.Financial.Cache.CreateCapFloorATMEngines(H5:I23,'Market Data'!C24:C37,'Market Data'!D24:D37,'Market Data'!H9:H134,'Market Data'!L9:L134)</f>
-        <v>ATM Hldr Engine</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" ht="13.5" thickBot="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="13.5" thickBot="1">
+      <c r="D25" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="98" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="26" spans="3:14" ht="13.5" thickBot="1">
       <c r="C26" s="38" t="s">
         <v>40</v>
@@ -7657,9 +7688,9 @@
         <f>'Market Data'!H9</f>
         <v>39637</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C31), 8)</f>
-        <v>0.16400000000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E31" s="59">
         <v>16.399999999999999</v>
@@ -7668,25 +7699,25 @@
         <f>E31/100</f>
         <v>0.16399999999999998</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="65" t="e">
         <f>F31-D31</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H31" s="46">
         <f>'Market Data'!K9</f>
         <v>39637</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C31), 8)</f>
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="J31" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="58" t="e">
         <f>I31-F31</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="58" t="e">
         <f>I31-D31</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M31" s="66">
         <v>16.399928669815001</v>
@@ -7701,9 +7732,9 @@
         <f>'Market Data'!H10</f>
         <v>39639</v>
       </c>
-      <c r="D32" s="57">
+      <c r="D32" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C32), 8)</f>
-        <v>0.16400000000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E32" s="59">
         <v>16.4132</v>
@@ -7712,25 +7743,25 @@
         <f t="shared" ref="F32:F95" si="0">E32/100</f>
         <v>0.164132</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="65" t="e">
         <f t="shared" ref="G32:G95" si="1">F32-D32</f>
-        <v>1.3199999999999323E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H32" s="46">
         <f>'Market Data'!K10</f>
         <v>39639</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C32), 8)</f>
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="J32" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="58" t="e">
         <f t="shared" ref="J32:J95" si="2">I32-F32</f>
-        <v>-1.3199999999999323E-4</v>
-      </c>
-      <c r="K32" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="58" t="e">
         <f t="shared" ref="K32:K95" si="3">I32-D32</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M32" s="66">
         <v>16.399928669815001</v>
@@ -7745,9 +7776,9 @@
         <f>'Market Data'!H11</f>
         <v>39671</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C33), 8)</f>
-        <v>0.16400000000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E33" s="60">
         <v>16.517700000000001</v>
@@ -7756,25 +7787,25 @@
         <f t="shared" si="0"/>
         <v>0.16517700000000002</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>1.1770000000000114E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H33" s="46">
         <f>'Market Data'!K11</f>
         <v>39671</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C33), 8)</f>
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="J33" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-1.1770000000000114E-3</v>
-      </c>
-      <c r="K33" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M33" s="66">
         <v>16.500355150369501</v>
@@ -7789,9 +7820,9 @@
         <f>'Market Data'!H12</f>
         <v>39701</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C34), 8)</f>
-        <v>0.16400000000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E34" s="61">
         <v>16.611899999999999</v>
@@ -7800,25 +7831,25 @@
         <f t="shared" si="0"/>
         <v>0.16611899999999999</v>
       </c>
-      <c r="G34" s="65">
+      <c r="G34" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>2.118999999999982E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H34" s="46">
         <f>'Market Data'!K12</f>
         <v>39701</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C34), 8)</f>
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="J34" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J34" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-2.118999999999982E-3</v>
-      </c>
-      <c r="K34" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M34" s="66">
         <v>16.604129180275702</v>
@@ -7833,9 +7864,9 @@
         <f>'Market Data'!H13</f>
         <v>39731</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C35), 8)</f>
-        <v>0.16667692000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E35" s="61">
         <v>16.710100000000001</v>
@@ -7844,25 +7875,25 @@
         <f t="shared" si="0"/>
         <v>0.167101</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>4.2407999999999335E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H35" s="46">
         <f>'Market Data'!K13</f>
         <v>39731</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C35), 8)</f>
-        <v>0.16667692000000001</v>
-      </c>
-      <c r="J35" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-4.2407999999999335E-4</v>
-      </c>
-      <c r="K35" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M35" s="66">
         <v>16.704555660830099</v>
@@ -7877,9 +7908,9 @@
         <f>'Market Data'!H14</f>
         <v>39762</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C36), 8)</f>
-        <v>0.16964066</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E36" s="61">
         <v>16.678000000000001</v>
@@ -7888,25 +7919,25 @@
         <f t="shared" si="0"/>
         <v>0.16678000000000001</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-2.8606599999999871E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H36" s="46">
         <f>'Market Data'!K14</f>
         <v>39762</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C36), 8)</f>
-        <v>0.16964066</v>
-      </c>
-      <c r="J36" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J36" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>2.8606599999999871E-3</v>
-      </c>
-      <c r="K36" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M36" s="66">
         <v>16.686534146720401</v>
@@ -7921,9 +7952,9 @@
         <f>'Market Data'!H15</f>
         <v>39792</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C37), 8)</f>
-        <v>0.17250879</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E37" s="61">
         <v>16.680700000000002</v>
@@ -7932,25 +7963,25 @@
         <f t="shared" si="0"/>
         <v>0.16680700000000001</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-5.7017899999999844E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H37" s="46">
         <f>'Market Data'!K15</f>
         <v>39792</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C37), 8)</f>
-        <v>0.17250879</v>
-      </c>
-      <c r="J37" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J37" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>5.7017899999999844E-3</v>
-      </c>
-      <c r="K37" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M37" s="66">
         <v>16.665165083258902</v>
@@ -7965,9 +7996,9 @@
         <f>'Market Data'!H16</f>
         <v>39825</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C38), 8)</f>
-        <v>0.16316153999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E38" s="62">
         <v>16.575900000000001</v>
@@ -7976,25 +8007,25 @@
         <f t="shared" si="0"/>
         <v>0.16575900000000002</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>2.5974600000000236E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H38" s="46">
         <f>'Market Data'!K16</f>
         <v>39825</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C38), 8)</f>
-        <v>0.16316153999999999</v>
-      </c>
-      <c r="J38" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J38" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-2.5974600000000236E-3</v>
-      </c>
-      <c r="K38" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M38" s="66">
         <v>16.643083717682099</v>
@@ -8009,9 +8040,9 @@
         <f>'Market Data'!H17</f>
         <v>39917</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C39), 8)</f>
-        <v>0.13879231</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E39" s="60">
         <v>14.011200000000001</v>
@@ -8020,25 +8051,25 @@
         <f t="shared" si="0"/>
         <v>0.14011200000000001</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>1.3196900000000122E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H39" s="46">
         <f>'Market Data'!K17</f>
         <v>39917</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C39), 8)</f>
-        <v>0.13879231</v>
-      </c>
-      <c r="J39" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J39" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-1.3196900000000122E-3</v>
-      </c>
-      <c r="K39" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M39" s="66">
         <v>13.9199434850863</v>
@@ -8053,9 +8084,9 @@
         <f>'Market Data'!H18</f>
         <v>40004</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C40), 8)</f>
-        <v>0.13813874000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E40" s="61">
         <v>16.163799999999998</v>
@@ -8064,25 +8095,25 @@
         <f t="shared" si="0"/>
         <v>0.16163799999999998</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>2.3499259999999966E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H40" s="46">
         <f>'Market Data'!K18</f>
         <v>40004</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C40), 8)</f>
-        <v>0.13806156</v>
-      </c>
-      <c r="J40" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J40" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-2.3576439999999976E-2</v>
-      </c>
-      <c r="K40" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-7.7180000000010018E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M40" s="66">
         <v>15.851939022250001</v>
@@ -8097,9 +8128,9 @@
         <f>'Market Data'!H19</f>
         <v>40098</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C41), 8)</f>
-        <v>0.17251163999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E41" s="61">
         <v>18.686699999999998</v>
@@ -8108,25 +8139,25 @@
         <f t="shared" si="0"/>
         <v>0.18686699999999998</v>
       </c>
-      <c r="G41" s="65">
+      <c r="G41" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>1.4355359999999984E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H41" s="46">
         <f>'Market Data'!K19</f>
         <v>40098</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C41), 8)</f>
-        <v>0.17217535</v>
-      </c>
-      <c r="J41" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J41" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-1.4691649999999973E-2</v>
-      </c>
-      <c r="K41" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-3.362899999999891E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M41" s="66">
         <v>18.4292352480199</v>
@@ -8141,9 +8172,9 @@
         <f>'Market Data'!H20</f>
         <v>40189</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C42), 8)</f>
-        <v>0.20578753</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E42" s="61">
         <v>20.4468</v>
@@ -8152,25 +8183,25 @@
         <f t="shared" si="0"/>
         <v>0.20446799999999998</v>
       </c>
-      <c r="G42" s="65">
+      <c r="G42" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-1.3195300000000132E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H42" s="46">
         <f>'Market Data'!K20</f>
         <v>40189</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I42" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C42), 8)</f>
-        <v>0.20520041</v>
-      </c>
-      <c r="J42" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J42" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>7.3241000000001666E-4</v>
-      </c>
-      <c r="K42" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-5.8711999999999653E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M42" s="66">
         <v>20.4091808325073</v>
@@ -8185,9 +8216,9 @@
         <f>'Market Data'!H21</f>
         <v>40280</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C43), 8)</f>
-        <v>0.23602302999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E43" s="61">
         <v>20.372499999999999</v>
@@ -8196,25 +8227,25 @@
         <f t="shared" si="0"/>
         <v>0.20372499999999999</v>
       </c>
-      <c r="G43" s="65">
+      <c r="G43" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.2298030000000005E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H43" s="46">
         <f>'Market Data'!K21</f>
         <v>40280</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I43" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C43), 8)</f>
-        <v>0.23521834999999999</v>
-      </c>
-      <c r="J43" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J43" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.1493350000000003E-2</v>
-      </c>
-      <c r="K43" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-8.0468000000000206E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M43" s="66">
         <v>20.510095532918701</v>
@@ -8229,9 +8260,9 @@
         <f>'Market Data'!H22</f>
         <v>40371</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C44), 8)</f>
-        <v>0.2139636</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E44" s="61">
         <v>19.015000000000001</v>
@@ -8240,25 +8271,25 @@
         <f t="shared" si="0"/>
         <v>0.19015000000000001</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-2.381359999999999E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H44" s="46">
         <f>'Market Data'!K22</f>
         <v>40371</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C44), 8)</f>
-        <v>0.21351386</v>
-      </c>
-      <c r="J44" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J44" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>2.3363859999999986E-2</v>
-      </c>
-      <c r="K44" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-4.4974000000000403E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M44" s="66">
         <v>19.0991772880224</v>
@@ -8273,9 +8304,9 @@
         <f>'Market Data'!H23</f>
         <v>40462</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C45), 8)</f>
-        <v>0.19190417000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E45" s="61">
         <v>18.252400000000002</v>
@@ -8284,25 +8315,25 @@
         <f t="shared" si="0"/>
         <v>0.18252400000000002</v>
       </c>
-      <c r="G45" s="65">
+      <c r="G45" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-9.3801699999999932E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H45" s="46">
         <f>'Market Data'!K23</f>
         <v>40462</v>
       </c>
-      <c r="I45" s="57">
+      <c r="I45" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C45), 8)</f>
-        <v>0.19180938</v>
-      </c>
-      <c r="J45" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J45" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>9.285379999999982E-3</v>
-      </c>
-      <c r="K45" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-9.4790000000011254E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M45" s="66">
         <v>18.280180328189399</v>
@@ -8317,9 +8348,9 @@
         <f>'Market Data'!H24</f>
         <v>40553</v>
       </c>
-      <c r="D46" s="57">
+      <c r="D46" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C46), 8)</f>
-        <v>0.16984473999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E46" s="61">
         <v>17.659800000000001</v>
@@ -8328,25 +8359,25 @@
         <f t="shared" si="0"/>
         <v>0.176598</v>
       </c>
-      <c r="G46" s="65">
+      <c r="G46" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>6.7532600000000109E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H46" s="46">
         <f>'Market Data'!K24</f>
         <v>40553</v>
       </c>
-      <c r="I46" s="57">
+      <c r="I46" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C46), 8)</f>
-        <v>0.17010489000000001</v>
-      </c>
-      <c r="J46" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J46" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-6.4931099999999964E-3</v>
-      </c>
-      <c r="K46" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.6015000000001454E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M46" s="66">
         <v>17.6525568482758</v>
@@ -8361,9 +8392,9 @@
         <f>'Market Data'!H25</f>
         <v>40644</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C47), 8)</f>
-        <v>0.14907535999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E47" s="61">
         <v>17.508600000000001</v>
@@ -8372,25 +8403,25 @@
         <f t="shared" si="0"/>
         <v>0.17508600000000002</v>
       </c>
-      <c r="G47" s="65">
+      <c r="G47" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>2.6010640000000029E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H47" s="46">
         <f>'Market Data'!K25</f>
         <v>40644</v>
       </c>
-      <c r="I47" s="57">
+      <c r="I47" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C47), 8)</f>
-        <v>0.1496662</v>
-      </c>
-      <c r="J47" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J47" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-2.541980000000002E-2</v>
-      </c>
-      <c r="K47" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>5.9084000000000914E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M47" s="66">
         <v>17.501336127014699</v>
@@ -8405,9 +8436,9 @@
         <f>'Market Data'!H26</f>
         <v>40735</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C48), 8)</f>
-        <v>0.15636460999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E48" s="61">
         <v>17.3886</v>
@@ -8416,25 +8447,25 @@
         <f t="shared" si="0"/>
         <v>0.17388600000000001</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>1.7521390000000026E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H48" s="46">
         <f>'Market Data'!K26</f>
         <v>40735</v>
       </c>
-      <c r="I48" s="57">
+      <c r="I48" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C48), 8)</f>
-        <v>0.15675853000000001</v>
-      </c>
-      <c r="J48" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J48" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-1.7127470000000006E-2</v>
-      </c>
-      <c r="K48" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K48" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>3.9392000000001981E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M48" s="66">
         <v>17.4021904096006</v>
@@ -8449,9 +8480,9 @@
         <f>'Market Data'!H27</f>
         <v>40826</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C49), 8)</f>
-        <v>0.16365384999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E49" s="61">
         <v>16.894400000000001</v>
@@ -8460,25 +8491,25 @@
         <f t="shared" si="0"/>
         <v>0.16894400000000001</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>5.2901500000000212E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H49" s="46">
         <f>'Market Data'!K27</f>
         <v>40826</v>
       </c>
-      <c r="I49" s="57">
+      <c r="I49" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C49), 8)</f>
-        <v>0.16385085999999999</v>
-      </c>
-      <c r="J49" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J49" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-5.0931400000000238E-3</v>
-      </c>
-      <c r="K49" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.9700999999999746E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M49" s="66">
         <v>16.9194913336108</v>
@@ -8493,9 +8524,9 @@
         <f>'Market Data'!H28</f>
         <v>40918</v>
       </c>
-      <c r="D50" s="57">
+      <c r="D50" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C50), 8)</f>
-        <v>0.17102319999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E50" s="61">
         <v>16.457699999999999</v>
@@ -8504,25 +8535,25 @@
         <f t="shared" si="0"/>
         <v>0.164577</v>
       </c>
-      <c r="G50" s="65">
+      <c r="G50" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-6.4461999999999853E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H50" s="46">
         <f>'Market Data'!K28</f>
         <v>40918</v>
       </c>
-      <c r="I50" s="57">
+      <c r="I50" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C50), 8)</f>
-        <v>0.17102112999999999</v>
-      </c>
-      <c r="J50" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J50" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>6.4441299999999924E-3</v>
-      </c>
-      <c r="K50" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-2.0699999999929108E-6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M50" s="66">
         <v>16.4814311811019</v>
@@ -8537,9 +8568,9 @@
         <f>'Market Data'!H29</f>
         <v>41009</v>
       </c>
-      <c r="D51" s="57">
+      <c r="D51" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C51), 8)</f>
-        <v>0.17831245000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E51" s="61">
         <v>16.143799999999999</v>
@@ -8548,25 +8579,25 @@
         <f t="shared" si="0"/>
         <v>0.161438</v>
       </c>
-      <c r="G51" s="65">
+      <c r="G51" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-1.6874450000000013E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H51" s="46">
         <f>'Market Data'!K29</f>
         <v>41009</v>
       </c>
-      <c r="I51" s="57">
+      <c r="I51" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C51), 8)</f>
-        <v>0.17811346</v>
-      </c>
-      <c r="J51" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J51" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>1.6675460000000003E-2</v>
-      </c>
-      <c r="K51" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-1.9899000000000999E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M51" s="66">
         <v>16.167050884704402</v>
@@ -8581,9 +8612,9 @@
         <f>'Market Data'!H30</f>
         <v>41100</v>
       </c>
-      <c r="D52" s="57">
+      <c r="D52" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C52), 8)</f>
-        <v>0.167513</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E52" s="61">
         <v>15.7552</v>
@@ -8592,25 +8623,25 @@
         <f t="shared" si="0"/>
         <v>0.157552</v>
       </c>
-      <c r="G52" s="65">
+      <c r="G52" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-9.9609999999999976E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H52" s="46">
         <f>'Market Data'!K30</f>
         <v>41100</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C52), 8)</f>
-        <v>0.16746071000000001</v>
-      </c>
-      <c r="J52" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J52" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>9.908710000000015E-3</v>
-      </c>
-      <c r="K52" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-5.2289999999982628E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M52" s="66">
         <v>15.7823196447581</v>
@@ -8625,9 +8656,9 @@
         <f>'Market Data'!H31</f>
         <v>41192</v>
       </c>
-      <c r="D53" s="57">
+      <c r="D53" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C53), 8)</f>
-        <v>0.15659487999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E53" s="61">
         <v>15.2788</v>
@@ -8636,25 +8667,25 @@
         <f t="shared" si="0"/>
         <v>0.15278800000000001</v>
       </c>
-      <c r="G53" s="65">
+      <c r="G53" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.8068799999999847E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H53" s="46">
         <f>'Market Data'!K31</f>
         <v>41192</v>
       </c>
-      <c r="I53" s="57">
+      <c r="I53" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C53), 8)</f>
-        <v>0.15669090999999999</v>
-      </c>
-      <c r="J53" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J53" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.9029099999999817E-3</v>
-      </c>
-      <c r="K53" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>9.6029999999996951E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M53" s="66">
         <v>15.3091109726199</v>
@@ -8669,9 +8700,9 @@
         <f>'Market Data'!H32</f>
         <v>41284</v>
       </c>
-      <c r="D54" s="57">
+      <c r="D54" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C54), 8)</f>
-        <v>0.14567675999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E54" s="61">
         <v>14.888</v>
@@ -8680,25 +8711,25 @@
         <f t="shared" si="0"/>
         <v>0.14888000000000001</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>3.2032400000000238E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H54" s="46">
         <f>'Market Data'!K32</f>
         <v>41284</v>
       </c>
-      <c r="I54" s="57">
+      <c r="I54" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C54), 8)</f>
-        <v>0.1459211</v>
-      </c>
-      <c r="J54" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J54" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-2.9589000000000143E-3</v>
-      </c>
-      <c r="K54" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.4434000000000955E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M54" s="66">
         <v>14.918623574255498</v>
@@ -8713,9 +8744,9 @@
         <f>'Market Data'!H33</f>
         <v>41374</v>
       </c>
-      <c r="D55" s="57">
+      <c r="D55" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C55), 8)</f>
-        <v>0.13521564999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E55" s="61">
         <v>14.6037</v>
@@ -8724,25 +8755,25 @@
         <f t="shared" si="0"/>
         <v>0.146037</v>
       </c>
-      <c r="G55" s="65">
+      <c r="G55" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>1.0821350000000007E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H55" s="46">
         <f>'Market Data'!K33</f>
         <v>41374</v>
       </c>
-      <c r="I55" s="57">
+      <c r="I55" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C55), 8)</f>
-        <v>0.13560088000000001</v>
-      </c>
-      <c r="J55" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J55" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-1.0436119999999993E-2</v>
-      </c>
-      <c r="K55" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>3.8523000000001417E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M55" s="66">
         <v>14.636666903021101</v>
@@ -8757,9 +8788,9 @@
         <f>'Market Data'!H34</f>
         <v>41465</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C56), 8)</f>
-        <v>0.13441115000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E56" s="61">
         <v>14.255699999999999</v>
@@ -8768,25 +8799,25 @@
         <f t="shared" si="0"/>
         <v>0.14255699999999999</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>8.1458499999999823E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H56" s="46">
         <f>'Market Data'!K34</f>
         <v>41465</v>
       </c>
-      <c r="I56" s="57">
+      <c r="I56" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C56), 8)</f>
-        <v>0.13475123</v>
-      </c>
-      <c r="J56" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J56" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-7.8057699999999897E-3</v>
-      </c>
-      <c r="K56" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>3.4007999999999261E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M56" s="66">
         <v>14.251321198383701</v>
@@ -8801,9 +8832,9 @@
         <f>'Market Data'!H35</f>
         <v>41557</v>
       </c>
-      <c r="D57" s="57">
+      <c r="D57" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C57), 8)</f>
-        <v>0.13359779999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E57" s="61">
         <v>13.866400000000001</v>
@@ -8812,25 +8843,25 @@
         <f t="shared" si="0"/>
         <v>0.13866400000000001</v>
       </c>
-      <c r="G57" s="65">
+      <c r="G57" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>5.0662000000000207E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H57" s="46">
         <f>'Market Data'!K35</f>
         <v>41557</v>
       </c>
-      <c r="I57" s="57">
+      <c r="I57" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C57), 8)</f>
-        <v>0.13389226000000001</v>
-      </c>
-      <c r="J57" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J57" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-4.7717399999999965E-3</v>
-      </c>
-      <c r="K57" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.9446000000002415E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M57" s="66">
         <v>13.8730995569949</v>
@@ -8845,9 +8876,9 @@
         <f>'Market Data'!H36</f>
         <v>41649</v>
       </c>
-      <c r="D58" s="57">
+      <c r="D58" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C58), 8)</f>
-        <v>0.13278445999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E58" s="61">
         <v>13.508599999999999</v>
@@ -8856,25 +8887,25 @@
         <f t="shared" si="0"/>
         <v>0.13508599999999998</v>
       </c>
-      <c r="G58" s="65">
+      <c r="G58" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>2.3015399999999908E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H58" s="46">
         <f>'Market Data'!K36</f>
         <v>41649</v>
       </c>
-      <c r="I58" s="57">
+      <c r="I58" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C58), 8)</f>
-        <v>0.13303328</v>
-      </c>
-      <c r="J58" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J58" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-2.0527199999999801E-3</v>
-      </c>
-      <c r="K58" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.488200000000107E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M58" s="66">
         <v>13.5266664819793</v>
@@ -8889,9 +8920,9 @@
         <f>'Market Data'!H37</f>
         <v>41739</v>
       </c>
-      <c r="D59" s="57">
+      <c r="D59" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C59), 8)</f>
-        <v>0.13198878999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E59" s="61">
         <v>13.183199999999999</v>
@@ -8900,25 +8931,25 @@
         <f t="shared" si="0"/>
         <v>0.131832</v>
       </c>
-      <c r="G59" s="65">
+      <c r="G59" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-1.5678999999998999E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H59" s="46">
         <f>'Market Data'!K37</f>
         <v>41739</v>
       </c>
-      <c r="I59" s="57">
+      <c r="I59" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C59), 8)</f>
-        <v>0.13219296999999999</v>
-      </c>
-      <c r="J59" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J59" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.6096999999998824E-4</v>
-      </c>
-      <c r="K59" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.0417999999999825E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M59" s="66">
         <v>13.214316713355201</v>
@@ -8933,9 +8964,9 @@
         <f>'Market Data'!H38</f>
         <v>41830</v>
       </c>
-      <c r="D60" s="57">
+      <c r="D60" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C60), 8)</f>
-        <v>0.13118429000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E60" s="61">
         <v>12.896599999999999</v>
@@ -8944,25 +8975,25 @@
         <f t="shared" si="0"/>
         <v>0.128966</v>
       </c>
-      <c r="G60" s="65">
+      <c r="G60" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-2.2182900000000116E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H60" s="46">
         <f>'Market Data'!K38</f>
         <v>41830</v>
       </c>
-      <c r="I60" s="57">
+      <c r="I60" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C60), 8)</f>
-        <v>0.13134333000000001</v>
-      </c>
-      <c r="J60" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J60" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>2.3773300000000108E-3</v>
-      </c>
-      <c r="K60" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K60" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.5903999999999918E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M60" s="66">
         <v>12.940066668063899</v>
@@ -8977,9 +9008,9 @@
         <f>'Market Data'!H39</f>
         <v>41922</v>
       </c>
-      <c r="D61" s="57">
+      <c r="D61" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C61), 8)</f>
-        <v>0.13037093999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E61" s="61">
         <v>12.6629</v>
@@ -8988,25 +9019,25 @@
         <f t="shared" si="0"/>
         <v>0.12662899999999999</v>
       </c>
-      <c r="G61" s="65">
+      <c r="G61" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.7419399999999992E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H61" s="46">
         <f>'Market Data'!K39</f>
         <v>41922</v>
       </c>
-      <c r="I61" s="57">
+      <c r="I61" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C61), 8)</f>
-        <v>0.13048435999999999</v>
-      </c>
-      <c r="J61" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J61" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.8553600000000021E-3</v>
-      </c>
-      <c r="K61" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.1342000000000296E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M61" s="66">
         <v>12.715194885203601</v>
@@ -9021,9 +9052,9 @@
         <f>'Market Data'!H40</f>
         <v>42016</v>
       </c>
-      <c r="D62" s="57">
+      <c r="D62" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C62), 8)</f>
-        <v>0.12953991000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E62" s="61">
         <v>12.4862</v>
@@ -9032,25 +9063,25 @@
         <f t="shared" si="0"/>
         <v>0.124862</v>
       </c>
-      <c r="G62" s="65">
+      <c r="G62" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-4.6779100000000073E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H62" s="46">
         <f>'Market Data'!K40</f>
         <v>42016</v>
       </c>
-      <c r="I62" s="57">
+      <c r="I62" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C62), 8)</f>
-        <v>0.12960671000000001</v>
-      </c>
-      <c r="J62" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J62" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>4.7447100000000131E-3</v>
-      </c>
-      <c r="K62" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>6.6800000000005744E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M62" s="66">
         <v>12.551672890647501</v>
@@ -9065,9 +9096,9 @@
         <f>'Market Data'!H41</f>
         <v>42104</v>
       </c>
-      <c r="D63" s="57">
+      <c r="D63" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C63), 8)</f>
-        <v>0.12871488</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E63" s="61">
         <v>12.386900000000001</v>
@@ -9076,25 +9107,25 @@
         <f t="shared" si="0"/>
         <v>0.12386900000000001</v>
       </c>
-      <c r="G63" s="65">
+      <c r="G63" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-4.8458799999999969E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H63" s="46">
         <f>'Market Data'!K41</f>
         <v>42104</v>
       </c>
-      <c r="I63" s="57">
+      <c r="I63" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C63), 8)</f>
-        <v>0.12874025</v>
-      </c>
-      <c r="J63" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J63" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>4.8712499999999936E-3</v>
-      </c>
-      <c r="K63" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K63" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.5369999999996784E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M63" s="66">
         <v>12.4540035861859</v>
@@ -9109,9 +9140,9 @@
         <f>'Market Data'!H42</f>
         <v>42195</v>
       </c>
-      <c r="D64" s="57">
+      <c r="D64" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C64), 8)</f>
-        <v>0.12648303</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E64" s="61">
         <v>12.299099999999999</v>
@@ -9120,25 +9151,25 @@
         <f t="shared" si="0"/>
         <v>0.12299099999999999</v>
       </c>
-      <c r="G64" s="65">
+      <c r="G64" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.4920300000000071E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H64" s="46">
         <f>'Market Data'!K42</f>
         <v>42195</v>
       </c>
-      <c r="I64" s="57">
+      <c r="I64" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C64), 8)</f>
-        <v>0.12653106</v>
-      </c>
-      <c r="J64" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J64" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.5400600000000115E-3</v>
-      </c>
-      <c r="K64" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>4.8030000000004458E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M64" s="66">
         <v>12.272305124593</v>
@@ -9153,9 +9184,9 @@
         <f>'Market Data'!H43</f>
         <v>42289</v>
       </c>
-      <c r="D65" s="57">
+      <c r="D65" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C65), 8)</f>
-        <v>0.1241776</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E65" s="61">
         <v>12.0565</v>
@@ -9164,25 +9195,25 @@
         <f t="shared" si="0"/>
         <v>0.12056499999999999</v>
       </c>
-      <c r="G65" s="65">
+      <c r="G65" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.6126000000000075E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H65" s="46">
         <f>'Market Data'!K43</f>
         <v>42289</v>
       </c>
-      <c r="I65" s="57">
+      <c r="I65" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C65), 8)</f>
-        <v>0.12424903</v>
-      </c>
-      <c r="J65" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J65" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.6840300000000048E-3</v>
-      </c>
-      <c r="K65" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>7.1429999999997329E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M65" s="66">
         <v>12.044282264074701</v>
@@ -9197,9 +9228,9 @@
         <f>'Market Data'!H44</f>
         <v>42380</v>
       </c>
-      <c r="D66" s="57">
+      <c r="D66" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C66), 8)</f>
-        <v>0.12194575000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E66" s="61">
         <v>11.843999999999999</v>
@@ -9208,25 +9239,25 @@
         <f t="shared" si="0"/>
         <v>0.11843999999999999</v>
       </c>
-      <c r="G66" s="65">
+      <c r="G66" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.5057500000000158E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H66" s="46">
         <f>'Market Data'!K44</f>
         <v>42380</v>
       </c>
-      <c r="I66" s="57">
+      <c r="I66" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C66), 8)</f>
-        <v>0.12203983</v>
-      </c>
-      <c r="J66" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J66" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.5998300000000122E-3</v>
-      </c>
-      <c r="K66" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K66" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>9.4079999999996389E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M66" s="66">
         <v>11.840897302891101</v>
@@ -9241,9 +9272,9 @@
         <f>'Market Data'!H45</f>
         <v>42471</v>
       </c>
-      <c r="D67" s="57">
+      <c r="D67" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C67), 8)</f>
-        <v>0.1197139</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E67" s="61">
         <v>11.648400000000001</v>
@@ -9252,25 +9283,25 @@
         <f t="shared" si="0"/>
         <v>0.116484</v>
       </c>
-      <c r="G67" s="65">
+      <c r="G67" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.2298999999999939E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H67" s="46">
         <f>'Market Data'!K45</f>
         <v>42471</v>
       </c>
-      <c r="I67" s="57">
+      <c r="I67" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C67), 8)</f>
-        <v>0.11983062999999999</v>
-      </c>
-      <c r="J67" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J67" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.3466299999999893E-3</v>
-      </c>
-      <c r="K67" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.1672999999999545E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M67" s="66">
         <v>11.6539042447149</v>
@@ -9285,9 +9316,9 @@
         <f>'Market Data'!H46</f>
         <v>42562</v>
       </c>
-      <c r="D68" s="57">
+      <c r="D68" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C68), 8)</f>
-        <v>0.11748205</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E68" s="61">
         <v>11.4726</v>
@@ -9296,25 +9327,25 @@
         <f t="shared" si="0"/>
         <v>0.11472599999999999</v>
       </c>
-      <c r="G68" s="65">
+      <c r="G68" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-2.7560500000000099E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H68" s="46">
         <f>'Market Data'!K46</f>
         <v>42562</v>
       </c>
-      <c r="I68" s="57">
+      <c r="I68" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C68), 8)</f>
-        <v>0.11762143</v>
-      </c>
-      <c r="J68" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J68" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>2.8954300000000044E-3</v>
-      </c>
-      <c r="K68" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K68" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.3937999999999451E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M68" s="66">
         <v>11.4875891315112</v>
@@ -9329,9 +9360,9 @@
         <f>'Market Data'!H47</f>
         <v>42653</v>
       </c>
-      <c r="D69" s="57">
+      <c r="D69" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C69), 8)</f>
-        <v>0.11525021000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E69" s="61">
         <v>11.3223</v>
@@ -9340,25 +9371,25 @@
         <f t="shared" si="0"/>
         <v>0.113223</v>
       </c>
-      <c r="G69" s="65">
+      <c r="G69" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-2.0272100000000015E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H69" s="46">
         <f>'Market Data'!K47</f>
         <v>42653</v>
       </c>
-      <c r="I69" s="57">
+      <c r="I69" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C69), 8)</f>
-        <v>0.11541224</v>
-      </c>
-      <c r="J69" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J69" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>2.1892399999999951E-3</v>
-      </c>
-      <c r="K69" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K69" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.6202999999999357E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M69" s="66">
         <v>11.3424897726761</v>
@@ -9373,9 +9404,9 @@
         <f>'Market Data'!H48</f>
         <v>42745</v>
       </c>
-      <c r="D70" s="57">
+      <c r="D70" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C70), 8)</f>
-        <v>0.11299383</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E70" s="61">
         <v>11.193</v>
@@ -9384,25 +9415,25 @@
         <f t="shared" si="0"/>
         <v>0.11193</v>
       </c>
-      <c r="G70" s="65">
+      <c r="G70" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-1.0638300000000017E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H70" s="46">
         <f>'Market Data'!K48</f>
         <v>42745</v>
       </c>
-      <c r="I70" s="57">
+      <c r="I70" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C70), 8)</f>
-        <v>0.11317876</v>
-      </c>
-      <c r="J70" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J70" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>1.2487600000000015E-3</v>
-      </c>
-      <c r="K70" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K70" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.8492999999999982E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M70" s="66">
         <v>11.2228181153877</v>
@@ -9417,9 +9448,9 @@
         <f>'Market Data'!H49</f>
         <v>42835</v>
       </c>
-      <c r="D71" s="57">
+      <c r="D71" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C71), 8)</f>
-        <v>0.11078651</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E71" s="61">
         <v>11.098800000000001</v>
@@ -9428,25 +9459,25 @@
         <f t="shared" si="0"/>
         <v>0.110988</v>
       </c>
-      <c r="G71" s="65">
+      <c r="G71" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>2.0148999999999861E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H71" s="46">
         <f>'Market Data'!K49</f>
         <v>42835</v>
       </c>
-      <c r="I71" s="57">
+      <c r="I71" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C71), 8)</f>
-        <v>0.11099384</v>
-      </c>
-      <c r="J71" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J71" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>5.839999999993073E-6</v>
-      </c>
-      <c r="K71" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K71" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.0732999999999169E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M71" s="66">
         <v>11.133239196542501</v>
@@ -9461,9 +9492,9 @@
         <f>'Market Data'!H50</f>
         <v>42926</v>
       </c>
-      <c r="D72" s="57">
+      <c r="D72" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C72), 8)</f>
-        <v>0.10855466</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E72" s="61">
         <v>11.0328</v>
@@ -9472,25 +9503,25 @@
         <f t="shared" si="0"/>
         <v>0.110328</v>
       </c>
-      <c r="G72" s="65">
+      <c r="G72" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>1.7733399999999983E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H72" s="46">
         <f>'Market Data'!K50</f>
         <v>42926</v>
       </c>
-      <c r="I72" s="57">
+      <c r="I72" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C72), 8)</f>
-        <v>0.10878464</v>
-      </c>
-      <c r="J72" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J72" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-1.5433599999999936E-3</v>
-      </c>
-      <c r="K72" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K72" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.2998000000000463E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M72" s="66">
         <v>11.071900106041301</v>
@@ -9505,9 +9536,9 @@
         <f>'Market Data'!H51</f>
         <v>43018</v>
       </c>
-      <c r="D73" s="57">
+      <c r="D73" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C73), 8)</f>
-        <v>0.10629827999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E73" s="61">
         <v>11.0006</v>
@@ -9516,25 +9547,25 @@
         <f t="shared" si="0"/>
         <v>0.11000600000000001</v>
       </c>
-      <c r="G73" s="65">
+      <c r="G73" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>3.7077200000000116E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H73" s="46">
         <f>'Market Data'!K51</f>
         <v>43018</v>
       </c>
-      <c r="I73" s="57">
+      <c r="I73" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C73), 8)</f>
-        <v>0.10655117</v>
-      </c>
-      <c r="J73" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J73" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-3.454830000000006E-3</v>
-      </c>
-      <c r="K73" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K73" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.5289000000000561E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M73" s="66">
         <v>11.0415712710608</v>
@@ -9549,9 +9580,9 @@
         <f>'Market Data'!H52</f>
         <v>43110</v>
       </c>
-      <c r="D74" s="57">
+      <c r="D74" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C74), 8)</f>
-        <v>0.10404191</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E74" s="61">
         <v>10.9985</v>
@@ -9560,25 +9591,25 @@
         <f t="shared" si="0"/>
         <v>0.109985</v>
       </c>
-      <c r="G74" s="65">
+      <c r="G74" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>5.9430899999999981E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H74" s="46">
         <f>'Market Data'!K52</f>
         <v>43110</v>
       </c>
-      <c r="I74" s="57">
+      <c r="I74" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C74), 8)</f>
-        <v>0.10431769</v>
-      </c>
-      <c r="J74" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J74" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-5.6673099999999949E-3</v>
-      </c>
-      <c r="K74" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K74" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.7578000000000324E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M74" s="66">
         <v>11.047355601528199</v>
@@ -9593,9 +9624,9 @@
         <f>'Market Data'!H53</f>
         <v>43200</v>
       </c>
-      <c r="D75" s="57">
+      <c r="D75" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C75), 8)</f>
-        <v>0.10186874999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E75" s="61">
         <v>11.042299999999999</v>
@@ -9604,25 +9635,25 @@
         <f t="shared" si="0"/>
         <v>0.11042299999999999</v>
       </c>
-      <c r="G75" s="65">
+      <c r="G75" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>8.5542499999999994E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H75" s="46">
         <f>'Market Data'!K53</f>
         <v>43200</v>
       </c>
-      <c r="I75" s="57">
+      <c r="I75" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C75), 8)</f>
-        <v>0.10216623</v>
-      </c>
-      <c r="J75" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J75" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-8.2567699999999966E-3</v>
-      </c>
-      <c r="K75" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K75" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.9748000000000274E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M75" s="66">
         <v>11.0885835584945</v>
@@ -9637,9 +9668,9 @@
         <f>'Market Data'!H54</f>
         <v>43291</v>
       </c>
-      <c r="D76" s="57">
+      <c r="D76" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C76), 8)</f>
-        <v>0.10274553</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E76" s="61">
         <v>11.0747</v>
@@ -9648,25 +9679,25 @@
         <f t="shared" si="0"/>
         <v>0.110747</v>
       </c>
-      <c r="G76" s="65">
+      <c r="G76" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>8.0014699999999966E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H76" s="46">
         <f>'Market Data'!K54</f>
         <v>43291</v>
       </c>
-      <c r="I76" s="57">
+      <c r="I76" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C76), 8)</f>
-        <v>0.10300171</v>
-      </c>
-      <c r="J76" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J76" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-7.7452900000000019E-3</v>
-      </c>
-      <c r="K76" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K76" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.5617999999999475E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M76" s="66">
         <v>10.996562868445301</v>
@@ -9681,9 +9712,9 @@
         <f>'Market Data'!H55</f>
         <v>43383</v>
       </c>
-      <c r="D77" s="57">
+      <c r="D77" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C77), 8)</f>
-        <v>0.10363195</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E77" s="61">
         <v>11.0351</v>
@@ -9692,25 +9723,25 @@
         <f t="shared" si="0"/>
         <v>0.110351</v>
       </c>
-      <c r="G77" s="65">
+      <c r="G77" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>6.7190500000000042E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H77" s="46">
         <f>'Market Data'!K55</f>
         <v>43383</v>
       </c>
-      <c r="I77" s="57">
+      <c r="I77" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C77), 8)</f>
-        <v>0.10384638</v>
-      </c>
-      <c r="J77" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J77" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-6.5046200000000026E-3</v>
-      </c>
-      <c r="K77" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K77" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>2.1443000000000156E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M77" s="66">
         <v>10.968783107194501</v>
@@ -9725,9 +9756,9 @@
         <f>'Market Data'!H56</f>
         <v>43475</v>
       </c>
-      <c r="D78" s="57">
+      <c r="D78" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C78), 8)</f>
-        <v>0.10451837999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E78" s="61">
         <v>10.9991</v>
@@ -9736,25 +9767,25 @@
         <f t="shared" si="0"/>
         <v>0.10999100000000001</v>
       </c>
-      <c r="G78" s="65">
+      <c r="G78" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>5.4726200000000114E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H78" s="46">
         <f>'Market Data'!K56</f>
         <v>43475</v>
       </c>
-      <c r="I78" s="57">
+      <c r="I78" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C78), 8)</f>
-        <v>0.10469104</v>
-      </c>
-      <c r="J78" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J78" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-5.2999600000000063E-3</v>
-      </c>
-      <c r="K78" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K78" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.7266000000000503E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M78" s="66">
         <v>10.9507548580765</v>
@@ -9769,9 +9800,9 @@
         <f>'Market Data'!H57</f>
         <v>43565</v>
       </c>
-      <c r="D79" s="57">
+      <c r="D79" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C79), 8)</f>
-        <v>0.10538553000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E79" s="61">
         <v>10.977499999999999</v>
@@ -9780,25 +9811,25 @@
         <f t="shared" si="0"/>
         <v>0.109775</v>
       </c>
-      <c r="G79" s="65">
+      <c r="G79" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>4.3894699999999925E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H79" s="46">
         <f>'Market Data'!K57</f>
         <v>43565</v>
       </c>
-      <c r="I79" s="57">
+      <c r="I79" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C79), 8)</f>
-        <v>0.10551734</v>
-      </c>
-      <c r="J79" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J79" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-4.2576599999999964E-3</v>
-      </c>
-      <c r="K79" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K79" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>1.318099999999961E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M79" s="66">
         <v>10.938721806521801</v>
@@ -9813,9 +9844,9 @@
         <f>'Market Data'!H58</f>
         <v>43656</v>
       </c>
-      <c r="D80" s="57">
+      <c r="D80" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C80), 8)</f>
-        <v>0.10626231</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E80" s="61">
         <v>10.962</v>
@@ -9824,25 +9855,25 @@
         <f t="shared" si="0"/>
         <v>0.10962</v>
       </c>
-      <c r="G80" s="65">
+      <c r="G80" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>3.3576899999999965E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H80" s="46">
         <f>'Market Data'!K58</f>
         <v>43656</v>
       </c>
-      <c r="I80" s="57">
+      <c r="I80" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C80), 8)</f>
-        <v>0.10635282</v>
-      </c>
-      <c r="J80" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J80" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-3.2671799999999945E-3</v>
-      </c>
-      <c r="K80" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K80" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>9.0510000000001978E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M80" s="66">
         <v>10.9329960623521</v>
@@ -9857,9 +9888,9 @@
         <f>'Market Data'!H59</f>
         <v>43748</v>
       </c>
-      <c r="D81" s="57">
+      <c r="D81" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C81), 8)</f>
-        <v>0.10714873</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E81" s="61">
         <v>10.954000000000001</v>
@@ -9868,25 +9899,25 @@
         <f t="shared" si="0"/>
         <v>0.10954000000000001</v>
       </c>
-      <c r="G81" s="65">
+      <c r="G81" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>2.3912700000000148E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H81" s="46">
         <f>'Market Data'!K59</f>
         <v>43748</v>
       </c>
-      <c r="I81" s="57">
+      <c r="I81" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C81), 8)</f>
-        <v>0.10719748</v>
-      </c>
-      <c r="J81" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J81" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-2.3425200000000146E-3</v>
-      </c>
-      <c r="K81" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K81" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>4.8750000000000182E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M81" s="66">
         <v>10.9337817848812</v>
@@ -9901,9 +9932,9 @@
         <f>'Market Data'!H60</f>
         <v>43840</v>
       </c>
-      <c r="D82" s="57">
+      <c r="D82" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C82), 8)</f>
-        <v>0.10803515</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E82" s="61">
         <v>10.9495</v>
@@ -9912,25 +9943,25 @@
         <f t="shared" si="0"/>
         <v>0.10949500000000001</v>
       </c>
-      <c r="G82" s="65">
+      <c r="G82" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>1.4598500000000125E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H82" s="46">
         <f>'Market Data'!K60</f>
         <v>43840</v>
       </c>
-      <c r="I82" s="57">
+      <c r="I82" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C82), 8)</f>
-        <v>0.10804215</v>
-      </c>
-      <c r="J82" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J82" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-1.4528500000000055E-3</v>
-      </c>
-      <c r="K82" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K82" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>7.0000000000070006E-6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M82" s="66">
         <v>10.9408364937955</v>
@@ -9945,9 +9976,9 @@
         <f>'Market Data'!H61</f>
         <v>43935</v>
       </c>
-      <c r="D83" s="57">
+      <c r="D83" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C83), 8)</f>
-        <v>0.10895048</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E83" s="61">
         <v>10.956099999999999</v>
@@ -9956,25 +9987,25 @@
         <f t="shared" si="0"/>
         <v>0.10956099999999999</v>
       </c>
-      <c r="G83" s="65">
+      <c r="G83" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>6.105199999999894E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H83" s="46">
         <f>'Market Data'!K61</f>
         <v>43935</v>
       </c>
-      <c r="I83" s="57">
+      <c r="I83" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C83), 8)</f>
-        <v>0.10891434999999999</v>
-      </c>
-      <c r="J83" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J83" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>-6.4664999999999861E-4</v>
-      </c>
-      <c r="K83" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K83" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-3.613000000000921E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M83" s="66">
         <v>10.9533851036401</v>
@@ -9989,9 +10020,9 @@
         <f>'Market Data'!H62</f>
         <v>44022</v>
       </c>
-      <c r="D84" s="57">
+      <c r="D84" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C84), 8)</f>
-        <v>0.10978872000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E84" s="61">
         <v>10.9687</v>
@@ -10000,25 +10031,25 @@
         <f t="shared" si="0"/>
         <v>0.10968700000000001</v>
       </c>
-      <c r="G84" s="65">
+      <c r="G84" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-1.0171999999999959E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H84" s="46">
         <f>'Market Data'!K62</f>
         <v>44022</v>
       </c>
-      <c r="I84" s="57">
+      <c r="I84" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C84), 8)</f>
-        <v>0.10971311</v>
-      </c>
-      <c r="J84" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J84" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>2.6109999999995859E-5</v>
-      </c>
-      <c r="K84" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K84" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-7.561000000000373E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M84" s="66">
         <v>10.971323940171301</v>
@@ -10033,9 +10064,9 @@
         <f>'Market Data'!H63</f>
         <v>44116</v>
       </c>
-      <c r="D85" s="57">
+      <c r="D85" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C85), 8)</f>
-        <v>0.11069440999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E85" s="61">
         <v>10.988300000000001</v>
@@ -10044,25 +10075,25 @@
         <f t="shared" si="0"/>
         <v>0.10988300000000001</v>
       </c>
-      <c r="G85" s="65">
+      <c r="G85" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-8.1140999999998464E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H85" s="46">
         <f>'Market Data'!K63</f>
         <v>44116</v>
       </c>
-      <c r="I85" s="57">
+      <c r="I85" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C85), 8)</f>
-        <v>0.11057612999999999</v>
-      </c>
-      <c r="J85" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J85" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>6.9312999999998626E-4</v>
-      </c>
-      <c r="K85" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K85" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-1.1827999999999839E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M85" s="66">
         <v>10.9946920932005</v>
@@ -10077,9 +10108,9 @@
         <f>'Market Data'!H64</f>
         <v>44207</v>
       </c>
-      <c r="D86" s="57">
+      <c r="D86" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C86), 8)</f>
-        <v>0.1115712</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E86" s="61">
         <v>11.0068</v>
@@ -10088,25 +10119,25 @@
         <f t="shared" si="0"/>
         <v>0.110068</v>
       </c>
-      <c r="G86" s="65">
+      <c r="G86" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-1.5031999999999962E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H86" s="46">
         <f>'Market Data'!K64</f>
         <v>44207</v>
       </c>
-      <c r="I86" s="57">
+      <c r="I86" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C86), 8)</f>
-        <v>0.11141162</v>
-      </c>
-      <c r="J86" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J86" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>1.3436200000000037E-3</v>
-      </c>
-      <c r="K86" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K86" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-1.5957999999999251E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M86" s="66">
         <v>11.023853887427599</v>
@@ -10121,9 +10152,9 @@
         <f>'Market Data'!H65</f>
         <v>44298</v>
       </c>
-      <c r="D87" s="57">
+      <c r="D87" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C87), 8)</f>
-        <v>0.11244799</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E87" s="61">
         <v>11.0397</v>
@@ -10132,25 +10163,25 @@
         <f t="shared" si="0"/>
         <v>0.110397</v>
       </c>
-      <c r="G87" s="65">
+      <c r="G87" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-2.0509900000000025E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H87" s="46">
         <f>'Market Data'!K65</f>
         <v>44298</v>
       </c>
-      <c r="I87" s="57">
+      <c r="I87" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C87), 8)</f>
-        <v>0.1122471</v>
-      </c>
-      <c r="J87" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J87" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>1.8501000000000073E-3</v>
-      </c>
-      <c r="K87" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K87" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-2.0088999999999524E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M87" s="66">
         <v>11.056265008232199</v>
@@ -10165,9 +10196,9 @@
         <f>'Market Data'!H66</f>
         <v>44389</v>
       </c>
-      <c r="D88" s="57">
+      <c r="D88" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C88), 8)</f>
-        <v>0.11332477000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E88" s="61">
         <v>11.0768</v>
@@ -10176,25 +10207,25 @@
         <f t="shared" si="0"/>
         <v>0.11076800000000001</v>
       </c>
-      <c r="G88" s="65">
+      <c r="G88" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-2.5567699999999999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H88" s="46">
         <f>'Market Data'!K66</f>
         <v>44389</v>
       </c>
-      <c r="I88" s="57">
+      <c r="I88" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C88), 8)</f>
-        <v>0.11308258</v>
-      </c>
-      <c r="J88" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J88" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>2.3145799999999966E-3</v>
-      </c>
-      <c r="K88" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K88" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-2.4219000000000324E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M88" s="66">
         <v>11.0936526370024</v>
@@ -10209,9 +10240,9 @@
         <f>'Market Data'!H67</f>
         <v>44480</v>
       </c>
-      <c r="D89" s="57">
+      <c r="D89" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C89), 8)</f>
-        <v>0.11420155999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E89" s="61">
         <v>11.117699999999999</v>
@@ -10220,25 +10251,25 @@
         <f t="shared" si="0"/>
         <v>0.111177</v>
       </c>
-      <c r="G89" s="65">
+      <c r="G89" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.0245599999999956E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H89" s="46">
         <f>'Market Data'!K67</f>
         <v>44480</v>
       </c>
-      <c r="I89" s="57">
+      <c r="I89" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C89), 8)</f>
-        <v>0.11391806</v>
-      </c>
-      <c r="J89" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J89" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>2.7410600000000035E-3</v>
-      </c>
-      <c r="K89" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K89" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-2.8349999999999209E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M89" s="66">
         <v>11.135738247948201</v>
@@ -10253,9 +10284,9 @@
         <f>'Market Data'!H68</f>
         <v>44571</v>
       </c>
-      <c r="D90" s="57">
+      <c r="D90" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C90), 8)</f>
-        <v>0.11507834</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E90" s="61">
         <v>11.1564</v>
@@ -10264,25 +10295,25 @@
         <f t="shared" si="0"/>
         <v>0.111564</v>
       </c>
-      <c r="G90" s="65">
+      <c r="G90" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.5143400000000047E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H90" s="46">
         <f>'Market Data'!K68</f>
         <v>44571</v>
       </c>
-      <c r="I90" s="57">
+      <c r="I90" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C90), 8)</f>
-        <v>0.11475354</v>
-      </c>
-      <c r="J90" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J90" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.1895400000000046E-3</v>
-      </c>
-      <c r="K90" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K90" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-3.2480000000000009E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M90" s="66">
         <v>11.181544087916299</v>
@@ -10297,9 +10328,9 @@
         <f>'Market Data'!H69</f>
         <v>44662</v>
       </c>
-      <c r="D91" s="57">
+      <c r="D91" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C91), 8)</f>
-        <v>0.11595513</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E91" s="61">
         <v>11.208600000000001</v>
@@ -10308,25 +10339,25 @@
         <f t="shared" si="0"/>
         <v>0.11208600000000001</v>
       </c>
-      <c r="G91" s="65">
+      <c r="G91" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-3.8691299999999984E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H91" s="46">
         <f>'Market Data'!K69</f>
         <v>44662</v>
       </c>
-      <c r="I91" s="57">
+      <c r="I91" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C91), 8)</f>
-        <v>0.11558902</v>
-      </c>
-      <c r="J91" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J91" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.5030199999999956E-3</v>
-      </c>
-      <c r="K91" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K91" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-3.6611000000000282E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M91" s="66">
         <v>11.229935516027</v>
@@ -10341,9 +10372,9 @@
         <f>'Market Data'!H70</f>
         <v>44753</v>
       </c>
-      <c r="D92" s="57">
+      <c r="D92" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C92), 8)</f>
-        <v>0.11683191</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E92" s="61">
         <v>11.2631</v>
@@ -10352,25 +10383,25 @@
         <f t="shared" si="0"/>
         <v>0.112631</v>
       </c>
-      <c r="G92" s="65">
+      <c r="G92" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-4.2009100000000021E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H92" s="46">
         <f>'Market Data'!K70</f>
         <v>44753</v>
       </c>
-      <c r="I92" s="57">
+      <c r="I92" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C92), 8)</f>
-        <v>0.1164245</v>
-      </c>
-      <c r="J92" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J92" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>3.7935000000000052E-3</v>
-      </c>
-      <c r="K92" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K92" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-4.0740999999999694E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M92" s="66">
         <v>11.282005596777999</v>
@@ -10385,9 +10416,9 @@
         <f>'Market Data'!H71</f>
         <v>44844</v>
       </c>
-      <c r="D93" s="57">
+      <c r="D93" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C93), 8)</f>
-        <v>0.1177087</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E93" s="61">
         <v>11.3203</v>
@@ -10396,25 +10427,25 @@
         <f t="shared" si="0"/>
         <v>0.113203</v>
       </c>
-      <c r="G93" s="65">
+      <c r="G93" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-4.5057000000000014E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H93" s="46">
         <f>'Market Data'!K71</f>
         <v>44844</v>
       </c>
-      <c r="I93" s="57">
+      <c r="I93" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C93), 8)</f>
-        <v>0.11725998999999999</v>
-      </c>
-      <c r="J93" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J93" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>4.0569899999999964E-3</v>
-      </c>
-      <c r="K93" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K93" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-4.4871000000000494E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M93" s="66">
         <v>11.3374987569273</v>
@@ -10429,9 +10460,9 @@
         <f>'Market Data'!H72</f>
         <v>44936</v>
       </c>
-      <c r="D94" s="57">
+      <c r="D94" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C94), 8)</f>
-        <v>0.11859512</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E94" s="61">
         <v>11.375</v>
@@ -10440,25 +10471,25 @@
         <f t="shared" si="0"/>
         <v>0.11375</v>
       </c>
-      <c r="G94" s="65">
+      <c r="G94" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-4.8451199999999944E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H94" s="46">
         <f>'Market Data'!K72</f>
         <v>44936</v>
       </c>
-      <c r="I94" s="57">
+      <c r="I94" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C94), 8)</f>
-        <v>0.11810465000000001</v>
-      </c>
-      <c r="J94" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J94" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>4.3546500000000016E-3</v>
-      </c>
-      <c r="K94" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K94" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-4.9046999999999286E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M94" s="66">
         <v>11.395643923106901</v>
@@ -10473,9 +10504,9 @@
         <f>'Market Data'!H73</f>
         <v>45027</v>
       </c>
-      <c r="D95" s="57">
+      <c r="D95" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C95), 8)</f>
-        <v>0.11947191</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E95" s="61">
         <v>11.440200000000001</v>
@@ -10484,25 +10515,25 @@
         <f t="shared" si="0"/>
         <v>0.114402</v>
       </c>
-      <c r="G95" s="65">
+      <c r="G95" s="65" t="e">
         <f t="shared" si="1"/>
-        <v>-5.0699099999999969E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H95" s="46">
         <f>'Market Data'!K73</f>
         <v>45027</v>
       </c>
-      <c r="I95" s="57">
+      <c r="I95" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C95), 8)</f>
-        <v>0.11894013000000001</v>
-      </c>
-      <c r="J95" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J95" s="58" t="e">
         <f t="shared" si="2"/>
-        <v>4.5381300000000013E-3</v>
-      </c>
-      <c r="K95" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K95" s="58" t="e">
         <f t="shared" si="3"/>
-        <v>-5.3177999999999559E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M95" s="66">
         <v>11.453031768140901</v>
@@ -10517,9 +10548,9 @@
         <f>'Market Data'!H74</f>
         <v>45117</v>
       </c>
-      <c r="D96" s="57">
+      <c r="D96" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C96), 8)</f>
-        <v>0.12088280999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E96" s="61">
         <v>11.511699999999999</v>
@@ -10528,25 +10559,25 @@
         <f t="shared" ref="F96:F156" si="5">E96/100</f>
         <v>0.115117</v>
       </c>
-      <c r="G96" s="65">
+      <c r="G96" s="65" t="e">
         <f t="shared" ref="G96:G156" si="6">F96-D96</f>
-        <v>-5.7658099999999962E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H96" s="46">
         <f>'Market Data'!K74</f>
         <v>45117</v>
       </c>
-      <c r="I96" s="57">
+      <c r="I96" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C96), 8)</f>
-        <v>0.12032472</v>
-      </c>
-      <c r="J96" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J96" s="58" t="e">
         <f t="shared" ref="J96:J156" si="7">I96-F96</f>
-        <v>5.207719999999999E-3</v>
-      </c>
-      <c r="K96" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K96" s="58" t="e">
         <f t="shared" ref="K96:K156" si="8">I96-D96</f>
-        <v>-5.580899999999972E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M96" s="66">
         <v>11.3264754832897</v>
@@ -10561,9 +10592,9 @@
         <f>'Market Data'!H75</f>
         <v>45209</v>
       </c>
-      <c r="D97" s="57">
+      <c r="D97" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C97), 8)</f>
-        <v>0.12232506</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E97" s="61">
         <v>11.8369</v>
@@ -10572,25 +10603,25 @@
         <f t="shared" si="5"/>
         <v>0.118369</v>
       </c>
-      <c r="G97" s="65">
+      <c r="G97" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-3.9560599999999974E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H97" s="46">
         <f>'Market Data'!K75</f>
         <v>45209</v>
       </c>
-      <c r="I97" s="57">
+      <c r="I97" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C97), 8)</f>
-        <v>0.12174008</v>
-      </c>
-      <c r="J97" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J97" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>3.3710799999999985E-3</v>
-      </c>
-      <c r="K97" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K97" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-5.8497999999999883E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M97" s="66">
         <v>11.7065782486027</v>
@@ -10605,9 +10636,9 @@
         <f>'Market Data'!H76</f>
         <v>45301</v>
       </c>
-      <c r="D98" s="57">
+      <c r="D98" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C98), 8)</f>
-        <v>0.12376732</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E98" s="61">
         <v>12.143599999999999</v>
@@ -10616,25 +10647,25 @@
         <f t="shared" si="5"/>
         <v>0.12143599999999999</v>
       </c>
-      <c r="G98" s="65">
+      <c r="G98" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-2.3313200000000117E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H98" s="46">
         <f>'Market Data'!K76</f>
         <v>45301</v>
       </c>
-      <c r="I98" s="57">
+      <c r="I98" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C98), 8)</f>
-        <v>0.12315545</v>
-      </c>
-      <c r="J98" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J98" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.7194500000000112E-3</v>
-      </c>
-      <c r="K98" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K98" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-6.1187000000000047E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M98" s="66">
         <v>12.072212881275799</v>
@@ -10649,9 +10680,9 @@
         <f>'Market Data'!H77</f>
         <v>45392</v>
       </c>
-      <c r="D99" s="57">
+      <c r="D99" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C99), 8)</f>
-        <v>0.12519389</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E99" s="61">
         <v>12.443199999999999</v>
@@ -10660,25 +10691,25 @@
         <f t="shared" si="5"/>
         <v>0.12443199999999999</v>
       </c>
-      <c r="G99" s="65">
+      <c r="G99" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-7.6189000000001506E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H99" s="46">
         <f>'Market Data'!K77</f>
         <v>45392</v>
       </c>
-      <c r="I99" s="57">
+      <c r="I99" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C99), 8)</f>
-        <v>0.12455542</v>
-      </c>
-      <c r="J99" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J99" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.2342000000001296E-4</v>
-      </c>
-      <c r="K99" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K99" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-6.3847000000000209E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M99" s="66">
         <v>12.4080235710216</v>
@@ -10693,9 +10724,9 @@
         <f>'Market Data'!H78</f>
         <v>45483</v>
       </c>
-      <c r="D100" s="57">
+      <c r="D100" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C100), 8)</f>
-        <v>0.12662047000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E100" s="61">
         <v>12.7354</v>
@@ -10704,25 +10735,25 @@
         <f t="shared" si="5"/>
         <v>0.12735399999999999</v>
       </c>
-      <c r="G100" s="65">
+      <c r="G100" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>7.3352999999998225E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H100" s="46">
         <f>'Market Data'!K78</f>
         <v>45483</v>
       </c>
-      <c r="I100" s="57">
+      <c r="I100" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C100), 8)</f>
-        <v>0.1259554</v>
-      </c>
-      <c r="J100" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J100" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.3985999999999998E-3</v>
-      </c>
-      <c r="K100" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K100" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-6.6507000000001759E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M100" s="66">
         <v>12.7181691164415</v>
@@ -10737,9 +10768,9 @@
         <f>'Market Data'!H79</f>
         <v>45575</v>
       </c>
-      <c r="D101" s="57">
+      <c r="D101" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C101), 8)</f>
-        <v>0.12806271999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E101" s="61">
         <v>13.0076</v>
@@ -10748,25 +10779,25 @@
         <f t="shared" si="5"/>
         <v>0.130076</v>
       </c>
-      <c r="G101" s="65">
+      <c r="G101" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>2.0132800000000062E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H101" s="46">
         <f>'Market Data'!K79</f>
         <v>45575</v>
       </c>
-      <c r="I101" s="57">
+      <c r="I101" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C101), 8)</f>
-        <v>0.12737076</v>
-      </c>
-      <c r="J101" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J101" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-2.7052399999999976E-3</v>
-      </c>
-      <c r="K101" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K101" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-6.9195999999999147E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M101" s="66">
         <v>13.002444763127899</v>
@@ -10781,9 +10812,9 @@
         <f>'Market Data'!H80</f>
         <v>45667</v>
       </c>
-      <c r="D102" s="57">
+      <c r="D102" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C102), 8)</f>
-        <v>0.12950497999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E102" s="61">
         <v>13.252000000000001</v>
@@ -10792,25 +10823,25 @@
         <f t="shared" si="5"/>
         <v>0.13252</v>
       </c>
-      <c r="G102" s="65">
+      <c r="G102" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>3.0150200000000071E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H102" s="46">
         <f>'Market Data'!K80</f>
         <v>45667</v>
       </c>
-      <c r="I102" s="57">
+      <c r="I102" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C102), 8)</f>
-        <v>0.12878612</v>
-      </c>
-      <c r="J102" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J102" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-3.733879999999995E-3</v>
-      </c>
-      <c r="K102" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K102" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-7.1885999999998784E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M102" s="66">
         <v>13.2561291285234</v>
@@ -10825,9 +10856,9 @@
         <f>'Market Data'!H81</f>
         <v>45757</v>
       </c>
-      <c r="D103" s="57">
+      <c r="D103" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C103), 8)</f>
-        <v>0.13091588000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E103" s="61">
         <v>13.485300000000001</v>
@@ -10836,25 +10867,25 @@
         <f t="shared" si="5"/>
         <v>0.134853</v>
       </c>
-      <c r="G103" s="65">
+      <c r="G103" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>3.9371199999999884E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H103" s="46">
         <f>'Market Data'!K81</f>
         <v>45757</v>
       </c>
-      <c r="I103" s="57">
+      <c r="I103" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C103), 8)</f>
-        <v>0.13017071</v>
-      </c>
-      <c r="J103" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J103" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-4.6822900000000056E-3</v>
-      </c>
-      <c r="K103" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K103" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-7.4517000000001721E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M103" s="66">
         <v>13.480039438963201</v>
@@ -10869,9 +10900,9 @@
         <f>'Market Data'!H82</f>
         <v>45848</v>
       </c>
-      <c r="D104" s="57">
+      <c r="D104" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C104), 8)</f>
-        <v>0.13234246</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E104" s="61">
         <v>13.6991</v>
@@ -10880,25 +10911,25 @@
         <f t="shared" si="5"/>
         <v>0.136991</v>
       </c>
-      <c r="G104" s="65">
+      <c r="G104" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>4.6485400000000066E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H104" s="46">
         <f>'Market Data'!K82</f>
         <v>45848</v>
       </c>
-      <c r="I104" s="57">
+      <c r="I104" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C104), 8)</f>
-        <v>0.13157068999999999</v>
-      </c>
-      <c r="J104" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J104" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-5.4203100000000115E-3</v>
-      </c>
-      <c r="K104" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K104" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-7.7177000000000495E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M104" s="66">
         <v>13.677140851964101</v>
@@ -10913,9 +10944,9 @@
         <f>'Market Data'!H83</f>
         <v>45940</v>
       </c>
-      <c r="D105" s="57">
+      <c r="D105" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C105), 8)</f>
-        <v>0.13378471</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E105" s="61">
         <v>13.8812</v>
@@ -10924,25 +10955,25 @@
         <f t="shared" si="5"/>
         <v>0.13881199999999999</v>
       </c>
-      <c r="G105" s="65">
+      <c r="G105" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>5.0272899999999898E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H105" s="46">
         <f>'Market Data'!K83</f>
         <v>45940</v>
       </c>
-      <c r="I105" s="57">
+      <c r="I105" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C105), 8)</f>
-        <v>0.13298604999999999</v>
-      </c>
-      <c r="J105" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J105" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-5.8259499999999964E-3</v>
-      </c>
-      <c r="K105" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K105" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-7.9866000000000659E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M105" s="66">
         <v>13.844525873600899</v>
@@ -10957,9 +10988,9 @@
         <f>'Market Data'!H84</f>
         <v>46034</v>
       </c>
-      <c r="D106" s="57">
+      <c r="D106" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C106), 8)</f>
-        <v>0.13525831999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E106" s="61">
         <v>14.0336</v>
@@ -10968,25 +10999,25 @@
         <f t="shared" si="5"/>
         <v>0.14033599999999999</v>
       </c>
-      <c r="G106" s="65">
+      <c r="G106" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>5.0776800000000011E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H106" s="46">
         <f>'Market Data'!K84</f>
         <v>46034</v>
       </c>
-      <c r="I106" s="57">
+      <c r="I106" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C106), 8)</f>
-        <v>0.13443218000000001</v>
-      </c>
-      <c r="J106" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J106" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-5.9038199999999763E-3</v>
-      </c>
-      <c r="K106" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K106" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-8.2613999999997523E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M106" s="66">
         <v>13.978454807917002</v>
@@ -11001,9 +11032,9 @@
         <f>'Market Data'!H85</f>
         <v>46122</v>
       </c>
-      <c r="D107" s="57">
+      <c r="D107" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C107), 8)</f>
-        <v>0.13663786999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E107" s="61">
         <v>14.153499999999999</v>
@@ -11012,25 +11043,25 @@
         <f t="shared" si="5"/>
         <v>0.14153499999999999</v>
       </c>
-      <c r="G107" s="65">
+      <c r="G107" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>4.8971299999999995E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H107" s="46">
         <f>'Market Data'!K85</f>
         <v>46122</v>
       </c>
-      <c r="I107" s="57">
+      <c r="I107" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C107), 8)</f>
-        <v>0.13578601000000001</v>
-      </c>
-      <c r="J107" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J107" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-5.7489899999999816E-3</v>
-      </c>
-      <c r="K107" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K107" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-8.5185999999998208E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M107" s="66">
         <v>14.0785048570133</v>
@@ -11045,9 +11076,9 @@
         <f>'Market Data'!H86</f>
         <v>46213</v>
       </c>
-      <c r="D108" s="57">
+      <c r="D108" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C108), 8)</f>
-        <v>0.13806444000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E108" s="61">
         <v>14.244999999999999</v>
@@ -11056,25 +11087,25 @@
         <f t="shared" si="5"/>
         <v>0.14244999999999999</v>
       </c>
-      <c r="G108" s="65">
+      <c r="G108" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>4.3855599999999828E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H108" s="46">
         <f>'Market Data'!K86</f>
         <v>46213</v>
       </c>
-      <c r="I108" s="57">
+      <c r="I108" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C108), 8)</f>
-        <v>0.13718598000000001</v>
-      </c>
-      <c r="J108" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J108" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-5.2640199999999804E-3</v>
-      </c>
-      <c r="K108" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K108" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-8.7845999999999758E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M108" s="66">
         <v>14.1447540717819</v>
@@ -11089,9 +11120,9 @@
         <f>'Market Data'!H87</f>
         <v>46307</v>
       </c>
-      <c r="D109" s="57">
+      <c r="D109" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C109), 8)</f>
-        <v>0.13953805</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E109" s="61">
         <v>14.2934</v>
@@ -11100,25 +11131,25 @@
         <f t="shared" si="5"/>
         <v>0.14293400000000001</v>
       </c>
-      <c r="G109" s="65">
+      <c r="G109" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>3.3959500000000087E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H109" s="46">
         <f>'Market Data'!K87</f>
         <v>46307</v>
       </c>
-      <c r="I109" s="57">
+      <c r="I109" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C109), 8)</f>
-        <v>0.13863211</v>
-      </c>
-      <c r="J109" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J109" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-4.3018900000000027E-3</v>
-      </c>
-      <c r="K109" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K109" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-9.0593999999999397E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M109" s="66">
         <v>14.1742922079787</v>
@@ -11133,9 +11164,9 @@
         <f>'Market Data'!H88</f>
         <v>46398</v>
       </c>
-      <c r="D110" s="57">
+      <c r="D110" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C110), 8)</f>
-        <v>0.14096463000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E110" s="61">
         <v>14.3048</v>
@@ -11144,25 +11175,25 @@
         <f t="shared" si="5"/>
         <v>0.14304800000000001</v>
       </c>
-      <c r="G110" s="65">
+      <c r="G110" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>2.0833700000000011E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H110" s="46">
         <f>'Market Data'!K88</f>
         <v>46398</v>
       </c>
-      <c r="I110" s="57">
+      <c r="I110" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C110), 8)</f>
-        <v>0.14003209</v>
-      </c>
-      <c r="J110" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J110" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-3.0159100000000105E-3</v>
-      </c>
-      <c r="K110" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K110" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-9.3254000000000947E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M110" s="66">
         <v>14.1649970173409</v>
@@ -11177,9 +11208,9 @@
         <f>'Market Data'!H89</f>
         <v>46489</v>
       </c>
-      <c r="D111" s="57">
+      <c r="D111" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C111), 8)</f>
-        <v>0.14239120999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E111" s="61">
         <v>14.267300000000001</v>
@@ -11188,25 +11219,25 @@
         <f t="shared" si="5"/>
         <v>0.14267299999999999</v>
       </c>
-      <c r="G111" s="65">
+      <c r="G111" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>2.8179000000000398E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H111" s="46">
         <f>'Market Data'!K89</f>
         <v>46489</v>
       </c>
-      <c r="I111" s="57">
+      <c r="I111" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C111), 8)</f>
-        <v>0.14143206999999999</v>
-      </c>
-      <c r="J111" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J111" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.2409300000000012E-3</v>
-      </c>
-      <c r="K111" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K111" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-9.5913999999999722E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M111" s="66">
         <v>14.115676935099</v>
@@ -11221,9 +11252,9 @@
         <f>'Market Data'!H90</f>
         <v>46580</v>
       </c>
-      <c r="D112" s="57">
+      <c r="D112" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C112), 8)</f>
-        <v>0.14381778000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E112" s="61">
         <v>14.1835</v>
@@ -11232,25 +11263,25 @@
         <f t="shared" si="5"/>
         <v>0.14183500000000002</v>
       </c>
-      <c r="G112" s="65">
+      <c r="G112" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-1.9827799999999896E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H112" s="46">
         <f>'Market Data'!K90</f>
         <v>46580</v>
       </c>
-      <c r="I112" s="57">
+      <c r="I112" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C112), 8)</f>
-        <v>0.14283204999999999</v>
-      </c>
-      <c r="J112" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J112" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>9.9704999999997157E-4</v>
-      </c>
-      <c r="K112" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K112" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-9.8573000000001798E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M112" s="66">
         <v>14.021792925262</v>
@@ -11265,9 +11296,9 @@
         <f>'Market Data'!H91</f>
         <v>46671</v>
       </c>
-      <c r="D113" s="57">
+      <c r="D113" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C113), 8)</f>
-        <v>0.14524435999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E113" s="61">
         <v>14.0494</v>
@@ -11276,25 +11307,25 @@
         <f t="shared" si="5"/>
         <v>0.14049400000000001</v>
       </c>
-      <c r="G113" s="65">
+      <c r="G113" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-4.7503599999999813E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H113" s="46">
         <f>'Market Data'!K91</f>
         <v>46671</v>
       </c>
-      <c r="I113" s="57">
+      <c r="I113" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C113), 8)</f>
-        <v>0.14423201999999999</v>
-      </c>
-      <c r="J113" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J113" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>3.7380199999999808E-3</v>
-      </c>
-      <c r="K113" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K113" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-1.0123400000000005E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M113" s="66">
         <v>13.8851551226394</v>
@@ -11309,9 +11340,9 @@
         <f>'Market Data'!H92</f>
         <v>46762</v>
       </c>
-      <c r="D114" s="57">
+      <c r="D114" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C114), 8)</f>
-        <v>0.14667094</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E114" s="61">
         <v>13.8637</v>
@@ -11320,25 +11351,25 @@
         <f t="shared" si="5"/>
         <v>0.13863700000000001</v>
       </c>
-      <c r="G114" s="65">
+      <c r="G114" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-8.0339399999999894E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H114" s="46">
         <f>'Market Data'!K92</f>
         <v>46762</v>
       </c>
-      <c r="I114" s="57">
+      <c r="I114" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C114), 8)</f>
-        <v>0.14563200000000001</v>
-      </c>
-      <c r="J114" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J114" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>6.9950000000000012E-3</v>
-      </c>
-      <c r="K114" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K114" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-1.0389399999999882E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M114" s="66">
         <v>13.699630066662799</v>
@@ -11353,9 +11384,9 @@
         <f>'Market Data'!H93</f>
         <v>46853</v>
       </c>
-      <c r="D115" s="57">
+      <c r="D115" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C115), 8)</f>
-        <v>0.14802589999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E115" s="61">
         <v>13.6122</v>
@@ -11364,25 +11395,25 @@
         <f t="shared" si="5"/>
         <v>0.13612199999999999</v>
       </c>
-      <c r="G115" s="65">
+      <c r="G115" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-1.1903899999999995E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H115" s="46">
         <f>'Market Data'!K93</f>
         <v>46853</v>
       </c>
-      <c r="I115" s="57">
+      <c r="I115" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C115), 8)</f>
-        <v>0.14696360999999999</v>
-      </c>
-      <c r="J115" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J115" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.0841610000000002E-2</v>
-      </c>
-      <c r="K115" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K115" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-1.0622899999999935E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M115" s="66">
         <v>13.467499746567901</v>
@@ -11397,9 +11428,9 @@
         <f>'Market Data'!H94</f>
         <v>46944</v>
       </c>
-      <c r="D116" s="57">
+      <c r="D116" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C116), 8)</f>
-        <v>0.14728019000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E116" s="61">
         <v>13.362299999999999</v>
@@ -11408,25 +11439,25 @@
         <f t="shared" si="5"/>
         <v>0.13362299999999999</v>
       </c>
-      <c r="G116" s="65">
+      <c r="G116" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-1.3657190000000013E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H116" s="46">
         <f>'Market Data'!K94</f>
         <v>46944</v>
       </c>
-      <c r="I116" s="57">
+      <c r="I116" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C116), 8)</f>
-        <v>0.14628981999999999</v>
-      </c>
-      <c r="J116" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J116" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.2666819999999995E-2</v>
-      </c>
-      <c r="K116" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K116" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-9.9037000000001818E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M116" s="66">
         <v>13.433884417433999</v>
@@ -11441,9 +11472,9 @@
         <f>'Market Data'!H95</f>
         <v>47036</v>
       </c>
-      <c r="D117" s="57">
+      <c r="D117" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C117), 8)</f>
-        <v>0.14652629</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E117" s="61">
         <v>13.366099999999999</v>
@@ -11452,25 +11483,25 @@
         <f t="shared" si="5"/>
         <v>0.133661</v>
       </c>
-      <c r="G117" s="65">
+      <c r="G117" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-1.2865290000000001E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H117" s="46">
         <f>'Market Data'!K95</f>
         <v>47036</v>
       </c>
-      <c r="I117" s="57">
+      <c r="I117" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C117), 8)</f>
-        <v>0.14560862999999999</v>
-      </c>
-      <c r="J117" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J117" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.1947629999999987E-2</v>
-      </c>
-      <c r="K117" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K117" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-9.1766000000001458E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M117" s="66">
         <v>13.430863486484098</v>
@@ -11485,9 +11516,9 @@
         <f>'Market Data'!H96</f>
         <v>47128</v>
       </c>
-      <c r="D118" s="57">
+      <c r="D118" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C118), 8)</f>
-        <v>0.14577239</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E118" s="61">
         <v>13.370100000000001</v>
@@ -11496,25 +11527,25 @@
         <f t="shared" si="5"/>
         <v>0.13370100000000001</v>
       </c>
-      <c r="G118" s="65">
+      <c r="G118" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-1.2071389999999987E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H118" s="46">
         <f>'Market Data'!K96</f>
         <v>47128</v>
       </c>
-      <c r="I118" s="57">
+      <c r="I118" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C118), 8)</f>
-        <v>0.14492743</v>
-      </c>
-      <c r="J118" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J118" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.1226429999999982E-2</v>
-      </c>
-      <c r="K118" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K118" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-8.4496000000000571E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M118" s="66">
         <v>13.427320017177898</v>
@@ -11529,9 +11560,9 @@
         <f>'Market Data'!H97</f>
         <v>47218</v>
       </c>
-      <c r="D119" s="57">
+      <c r="D119" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C119), 8)</f>
-        <v>0.14503488</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E119" s="61">
         <v>13.3758</v>
@@ -11540,25 +11571,25 @@
         <f t="shared" si="5"/>
         <v>0.13375799999999999</v>
       </c>
-      <c r="G119" s="65">
+      <c r="G119" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-1.1276880000000017E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H119" s="46">
         <f>'Market Data'!K97</f>
         <v>47218</v>
       </c>
-      <c r="I119" s="57">
+      <c r="I119" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C119), 8)</f>
-        <v>0.14426104000000001</v>
-      </c>
-      <c r="J119" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J119" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.0503040000000019E-2</v>
-      </c>
-      <c r="K119" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K119" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-7.7383999999999786E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M119" s="66">
         <v>13.423621281533499</v>
@@ -11573,9 +11604,9 @@
         <f>'Market Data'!H98</f>
         <v>47309</v>
       </c>
-      <c r="D120" s="57">
+      <c r="D120" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C120), 8)</f>
-        <v>0.14428916999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E120" s="61">
         <v>13.384399999999999</v>
@@ -11584,25 +11615,25 @@
         <f t="shared" si="5"/>
         <v>0.13384399999999999</v>
       </c>
-      <c r="G120" s="65">
+      <c r="G120" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-1.0445170000000004E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H120" s="46">
         <f>'Market Data'!K98</f>
         <v>47309</v>
       </c>
-      <c r="I120" s="57">
+      <c r="I120" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C120), 8)</f>
-        <v>0.14358725</v>
-      </c>
-      <c r="J120" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J120" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>9.7432500000000088E-3</v>
-      </c>
-      <c r="K120" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K120" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-7.0191999999999477E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M120" s="66">
         <v>13.419911336980499</v>
@@ -11617,9 +11648,9 @@
         <f>'Market Data'!H99</f>
         <v>47401</v>
       </c>
-      <c r="D121" s="57">
+      <c r="D121" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C121), 8)</f>
-        <v>0.14353526999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E121" s="61">
         <v>13.3886</v>
@@ -11628,25 +11659,25 @@
         <f t="shared" si="5"/>
         <v>0.13388600000000001</v>
       </c>
-      <c r="G121" s="65">
+      <c r="G121" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-9.6492699999999876E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H121" s="46">
         <f>'Market Data'!K99</f>
         <v>47401</v>
       </c>
-      <c r="I121" s="57">
+      <c r="I121" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C121), 8)</f>
-        <v>0.14290606</v>
-      </c>
-      <c r="J121" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J121" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>9.0200599999999964E-3</v>
-      </c>
-      <c r="K121" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K121" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-6.2920999999999117E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M121" s="66">
         <v>13.4162784491207</v>
@@ -11661,9 +11692,9 @@
         <f>'Market Data'!H100</f>
         <v>47493</v>
       </c>
-      <c r="D122" s="57">
+      <c r="D122" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C122), 8)</f>
-        <v>0.14278136999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E122" s="61">
         <v>13.3934</v>
@@ -11672,25 +11703,25 @@
         <f t="shared" si="5"/>
         <v>0.133934</v>
       </c>
-      <c r="G122" s="65">
+      <c r="G122" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-8.8473699999999933E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H122" s="46">
         <f>'Market Data'!K100</f>
         <v>47493</v>
       </c>
-      <c r="I122" s="57">
+      <c r="I122" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C122), 8)</f>
-        <v>0.14222486000000001</v>
-      </c>
-      <c r="J122" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J122" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>8.290860000000011E-3</v>
-      </c>
-      <c r="K122" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K122" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-5.565099999999823E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M122" s="66">
         <v>13.412844585980398</v>
@@ -11705,9 +11736,9 @@
         <f>'Market Data'!H101</f>
         <v>47583</v>
       </c>
-      <c r="D123" s="57">
+      <c r="D123" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C123), 8)</f>
-        <v>0.14204385</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E123" s="61">
         <v>13.3994</v>
@@ -11716,25 +11747,25 @@
         <f t="shared" si="5"/>
         <v>0.133994</v>
       </c>
-      <c r="G123" s="65">
+      <c r="G123" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-8.0498499999999973E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H123" s="46">
         <f>'Market Data'!K101</f>
         <v>47583</v>
       </c>
-      <c r="I123" s="57">
+      <c r="I123" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C123), 8)</f>
-        <v>0.14155847999999999</v>
-      </c>
-      <c r="J123" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J123" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>7.5644799999999845E-3</v>
-      </c>
-      <c r="K123" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K123" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-4.8537000000001274E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M123" s="66">
         <v>13.409287051744901</v>
@@ -11749,9 +11780,9 @@
         <f>'Market Data'!H102</f>
         <v>47674</v>
       </c>
-      <c r="D124" s="57">
+      <c r="D124" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C124), 8)</f>
-        <v>0.14129815000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E124" s="61">
         <v>13.4085</v>
@@ -11760,25 +11791,25 @@
         <f t="shared" si="5"/>
         <v>0.13408500000000001</v>
       </c>
-      <c r="G124" s="65">
+      <c r="G124" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-7.2131500000000015E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H124" s="46">
         <f>'Market Data'!K102</f>
         <v>47674</v>
       </c>
-      <c r="I124" s="57">
+      <c r="I124" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C124), 8)</f>
-        <v>0.14088469000000001</v>
-      </c>
-      <c r="J124" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J124" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>6.7996899999999971E-3</v>
-      </c>
-      <c r="K124" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K124" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-4.1346000000000438E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M124" s="66">
         <v>13.4057304372391</v>
@@ -11793,9 +11824,9 @@
         <f>'Market Data'!H103</f>
         <v>47766</v>
       </c>
-      <c r="D125" s="57">
+      <c r="D125" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C125), 8)</f>
-        <v>0.14054423999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E125" s="61">
         <v>13.4131</v>
@@ -11804,25 +11835,25 @@
         <f t="shared" si="5"/>
         <v>0.134131</v>
       </c>
-      <c r="G125" s="65">
+      <c r="G125" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-6.4132399999999867E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H125" s="46">
         <f>'Market Data'!K103</f>
         <v>47766</v>
       </c>
-      <c r="I125" s="57">
+      <c r="I125" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C125), 8)</f>
-        <v>0.14020348999999999</v>
-      </c>
-      <c r="J125" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J125" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>6.072489999999986E-3</v>
-      </c>
-      <c r="K125" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K125" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-3.4075000000000077E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M125" s="66">
         <v>13.402258766818601</v>
@@ -11837,9 +11868,9 @@
         <f>'Market Data'!H104</f>
         <v>47858</v>
       </c>
-      <c r="D126" s="57">
+      <c r="D126" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C126), 8)</f>
-        <v>0.13979034000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E126" s="61">
         <v>13.4186</v>
@@ -11848,25 +11879,25 @@
         <f t="shared" si="5"/>
         <v>0.134186</v>
       </c>
-      <c r="G126" s="65">
+      <c r="G126" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-5.6043400000000132E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H126" s="46">
         <f>'Market Data'!K104</f>
         <v>47858</v>
       </c>
-      <c r="I126" s="57">
+      <c r="I126" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C126), 8)</f>
-        <v>0.13952229999999999</v>
-      </c>
-      <c r="J126" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J126" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>5.3362999999999883E-3</v>
-      </c>
-      <c r="K126" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K126" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-2.6804000000002492E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M126" s="66">
         <v>13.398987877243199</v>
@@ -11881,9 +11912,9 @@
         <f>'Market Data'!H105</f>
         <v>47948</v>
       </c>
-      <c r="D127" s="57">
+      <c r="D127" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C127), 8)</f>
-        <v>0.13905282999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E127" s="61">
         <v>13.424899999999999</v>
@@ -11892,25 +11923,25 @@
         <f t="shared" si="5"/>
         <v>0.13424899999999998</v>
       </c>
-      <c r="G127" s="65">
+      <c r="G127" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-4.8038300000000089E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H127" s="46">
         <f>'Market Data'!K105</f>
         <v>47948</v>
       </c>
-      <c r="I127" s="57">
+      <c r="I127" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C127), 8)</f>
-        <v>0.13885591</v>
-      </c>
-      <c r="J127" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J127" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>4.6069100000000196E-3</v>
-      </c>
-      <c r="K127" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K127" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-1.9691999999998933E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M127" s="66">
         <v>13.395604810112799</v>
@@ -11925,9 +11956,9 @@
         <f>'Market Data'!H106</f>
         <v>48039</v>
       </c>
-      <c r="D128" s="57">
+      <c r="D128" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C128), 8)</f>
-        <v>0.13830712000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E128" s="61">
         <v>13.4345</v>
@@ -11936,25 +11967,25 @@
         <f t="shared" si="5"/>
         <v>0.13434499999999999</v>
       </c>
-      <c r="G128" s="65">
+      <c r="G128" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-3.9621200000000134E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H128" s="46">
         <f>'Market Data'!K106</f>
         <v>48039</v>
       </c>
-      <c r="I128" s="57">
+      <c r="I128" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C128), 8)</f>
-        <v>0.13818211999999999</v>
-      </c>
-      <c r="J128" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J128" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>3.8371199999999994E-3</v>
-      </c>
-      <c r="K128" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K128" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-1.2500000000001399E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M128" s="66">
         <v>13.392230085732102</v>
@@ -11969,9 +12000,9 @@
         <f>'Market Data'!H107</f>
         <v>48131</v>
       </c>
-      <c r="D129" s="57">
+      <c r="D129" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C129), 8)</f>
-        <v>0.13755322</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E129" s="61">
         <v>13.439500000000001</v>
@@ -11980,25 +12011,25 @@
         <f t="shared" si="5"/>
         <v>0.13439500000000001</v>
       </c>
-      <c r="G129" s="65">
+      <c r="G129" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-3.1582199999999894E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H129" s="46">
         <f>'Market Data'!K107</f>
         <v>48131</v>
       </c>
-      <c r="I129" s="57">
+      <c r="I129" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C129), 8)</f>
-        <v>0.13750092999999999</v>
-      </c>
-      <c r="J129" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J129" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>3.105929999999979E-3</v>
-      </c>
-      <c r="K129" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K129" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>-5.2290000000010384E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M129" s="66">
         <v>13.3889437911889</v>
@@ -12013,9 +12044,9 @@
         <f>'Market Data'!H108</f>
         <v>48225</v>
       </c>
-      <c r="D130" s="57">
+      <c r="D130" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C130), 8)</f>
-        <v>0.13678293</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E130" s="61">
         <v>13.4473</v>
@@ -12024,25 +12055,25 @@
         <f t="shared" si="5"/>
         <v>0.13447300000000001</v>
       </c>
-      <c r="G130" s="65">
+      <c r="G130" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-2.3099299999999878E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H130" s="46">
         <f>'Market Data'!K108</f>
         <v>48225</v>
       </c>
-      <c r="I130" s="57">
+      <c r="I130" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C130), 8)</f>
-        <v>0.13680492</v>
-      </c>
-      <c r="J130" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J130" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>2.3319199999999873E-3</v>
-      </c>
-      <c r="K130" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K130" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>2.198999999999951E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M130" s="66">
         <v>13.3857814644131</v>
@@ -12057,9 +12088,9 @@
         <f>'Market Data'!H109</f>
         <v>48316</v>
       </c>
-      <c r="D131" s="57">
+      <c r="D131" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C131), 8)</f>
-        <v>0.13603721999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E131" s="61">
         <v>13.452500000000001</v>
@@ -12068,25 +12099,25 @@
         <f t="shared" si="5"/>
         <v>0.13452500000000001</v>
       </c>
-      <c r="G131" s="65">
+      <c r="G131" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-1.5122199999999808E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H131" s="46">
         <f>'Market Data'!K109</f>
         <v>48316</v>
       </c>
-      <c r="I131" s="57">
+      <c r="I131" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C131), 8)</f>
-        <v>0.13613112999999999</v>
-      </c>
-      <c r="J131" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J131" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.6061299999999834E-3</v>
-      </c>
-      <c r="K131" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K131" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>9.3910000000002603E-5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M131" s="66">
         <v>13.3826282762841</v>
@@ -12101,9 +12132,9 @@
         <f>'Market Data'!H110</f>
         <v>48407</v>
       </c>
-      <c r="D132" s="57">
+      <c r="D132" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C132), 8)</f>
-        <v>0.13529151</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E132" s="61">
         <v>13.4626</v>
@@ -12112,25 +12143,25 @@
         <f t="shared" si="5"/>
         <v>0.134626</v>
       </c>
-      <c r="G132" s="65">
+      <c r="G132" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>-6.6551000000000804E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H132" s="46">
         <f>'Market Data'!K110</f>
         <v>48407</v>
       </c>
-      <c r="I132" s="57">
+      <c r="I132" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C132), 8)</f>
-        <v>0.13545734000000001</v>
-      </c>
-      <c r="J132" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J132" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>8.3134000000001373E-4</v>
-      </c>
-      <c r="K132" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K132" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.658300000000057E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M132" s="66">
         <v>13.379344365343401</v>
@@ -12145,9 +12176,9 @@
         <f>'Market Data'!H111</f>
         <v>48498</v>
       </c>
-      <c r="D133" s="57">
+      <c r="D133" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C133), 8)</f>
-        <v>0.13454580999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E133" s="61">
         <v>13.468</v>
@@ -12156,25 +12187,25 @@
         <f t="shared" si="5"/>
         <v>0.13467999999999999</v>
       </c>
-      <c r="G133" s="65">
+      <c r="G133" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.3419000000000625E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H133" s="46">
         <f>'Market Data'!K111</f>
         <v>48498</v>
       </c>
-      <c r="I133" s="57">
+      <c r="I133" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C133), 8)</f>
-        <v>0.13478355</v>
-      </c>
-      <c r="J133" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J133" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>1.035500000000078E-4</v>
-      </c>
-      <c r="K133" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K133" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>2.3774000000001405E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M133" s="66">
         <v>13.3764082052058</v>
@@ -12189,9 +12220,9 @@
         <f>'Market Data'!H112</f>
         <v>48589</v>
       </c>
-      <c r="D134" s="57">
+      <c r="D134" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C134), 8)</f>
-        <v>0.13380010000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E134" s="61">
         <v>13.475199999999999</v>
@@ -12200,25 +12231,25 @@
         <f t="shared" si="5"/>
         <v>0.13475199999999998</v>
       </c>
-      <c r="G134" s="65">
+      <c r="G134" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>9.5189999999997776E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H134" s="46">
         <f>'Market Data'!K112</f>
         <v>48589</v>
       </c>
-      <c r="I134" s="57">
+      <c r="I134" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C134), 8)</f>
-        <v>0.13410975999999999</v>
-      </c>
-      <c r="J134" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J134" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-6.4223999999998838E-4</v>
-      </c>
-      <c r="K134" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K134" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>3.0965999999998939E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M134" s="66">
         <v>13.373410181841299</v>
@@ -12233,9 +12264,9 @@
         <f>'Market Data'!H113</f>
         <v>48680</v>
       </c>
-      <c r="D135" s="57">
+      <c r="D135" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C135), 8)</f>
-        <v>0.13305438999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E135" s="61">
         <v>13.4823</v>
@@ -12244,25 +12275,25 @@
         <f t="shared" si="5"/>
         <v>0.134823</v>
       </c>
-      <c r="G135" s="65">
+      <c r="G135" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.7686100000000038E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H135" s="46">
         <f>'Market Data'!K113</f>
         <v>48680</v>
       </c>
-      <c r="I135" s="57">
+      <c r="I135" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C135), 8)</f>
-        <v>0.13343596999999999</v>
-      </c>
-      <c r="J135" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J135" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.3870300000000113E-3</v>
-      </c>
-      <c r="K135" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K135" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>3.8157999999999248E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M135" s="66">
         <v>13.372957649485</v>
@@ -12277,9 +12308,9 @@
         <f>'Market Data'!H114</f>
         <v>48771</v>
       </c>
-      <c r="D136" s="57">
+      <c r="D136" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C136), 8)</f>
-        <v>0.13230868000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E136" s="61">
         <v>13.4215</v>
@@ -12288,25 +12319,25 @@
         <f t="shared" si="5"/>
         <v>0.134215</v>
       </c>
-      <c r="G136" s="65">
+      <c r="G136" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.9063199999999891E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H136" s="46">
         <f>'Market Data'!K114</f>
         <v>48771</v>
       </c>
-      <c r="I136" s="57">
+      <c r="I136" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C136), 8)</f>
-        <v>0.13276218000000001</v>
-      </c>
-      <c r="J136" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J136" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.4528199999999936E-3</v>
-      </c>
-      <c r="K136" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K136" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>4.5349999999999557E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M136" s="66">
         <v>13.5115274315846</v>
@@ -12321,9 +12352,9 @@
         <f>'Market Data'!H115</f>
         <v>48862</v>
       </c>
-      <c r="D137" s="57">
+      <c r="D137" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C137), 8)</f>
-        <v>0.13156298</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E137" s="61">
         <v>13.4252</v>
@@ -12332,25 +12363,25 @@
         <f t="shared" si="5"/>
         <v>0.13425200000000001</v>
       </c>
-      <c r="G137" s="65">
+      <c r="G137" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>2.6890200000000142E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H137" s="46">
         <f>'Market Data'!K115</f>
         <v>48862</v>
       </c>
-      <c r="I137" s="57">
+      <c r="I137" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C137), 8)</f>
-        <v>0.13208839</v>
-      </c>
-      <c r="J137" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J137" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-2.1636100000000102E-3</v>
-      </c>
-      <c r="K137" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K137" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>5.2541000000000393E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M137" s="66">
         <v>13.515217133297799</v>
@@ -12365,9 +12396,9 @@
         <f>'Market Data'!H116</f>
         <v>48954</v>
       </c>
-      <c r="D138" s="57">
+      <c r="D138" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C138), 8)</f>
-        <v>0.13080907</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E138" s="61">
         <v>13.430199999999999</v>
@@ -12376,25 +12407,25 @@
         <f t="shared" si="5"/>
         <v>0.134302</v>
       </c>
-      <c r="G138" s="65">
+      <c r="G138" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>3.4929300000000052E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H138" s="46">
         <f>'Market Data'!K116</f>
         <v>48954</v>
       </c>
-      <c r="I138" s="57">
+      <c r="I138" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C138), 8)</f>
-        <v>0.1314072</v>
-      </c>
-      <c r="J138" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J138" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-2.8948000000000029E-3</v>
-      </c>
-      <c r="K138" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K138" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>5.9813000000000227E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M138" s="66">
         <v>13.510366017992901</v>
@@ -12409,9 +12440,9 @@
         <f>'Market Data'!H117</f>
         <v>49045</v>
       </c>
-      <c r="D139" s="57">
+      <c r="D139" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C139), 8)</f>
-        <v>0.13006337000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E139" s="61">
         <v>13.4358</v>
@@ -12420,25 +12451,25 @@
         <f t="shared" si="5"/>
         <v>0.13435800000000001</v>
       </c>
-      <c r="G139" s="65">
+      <c r="G139" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>4.2946299999999937E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H139" s="46">
         <f>'Market Data'!K117</f>
         <v>49045</v>
       </c>
-      <c r="I139" s="57">
+      <c r="I139" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C139), 8)</f>
-        <v>0.13073340999999999</v>
-      </c>
-      <c r="J139" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J139" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-3.6245900000000109E-3</v>
-      </c>
-      <c r="K139" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K139" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>6.7003999999998287E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M139" s="66">
         <v>13.5057185793399</v>
@@ -12453,9 +12484,9 @@
         <f>'Market Data'!H118</f>
         <v>49135</v>
       </c>
-      <c r="D140" s="57">
+      <c r="D140" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C140), 8)</f>
-        <v>0.12932584999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E140" s="61">
         <v>13.445499999999999</v>
@@ -12464,25 +12495,25 @@
         <f t="shared" si="5"/>
         <v>0.13445499999999999</v>
       </c>
-      <c r="G140" s="65">
+      <c r="G140" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>5.129149999999999E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H140" s="46">
         <f>'Market Data'!K118</f>
         <v>49135</v>
       </c>
-      <c r="I140" s="57">
+      <c r="I140" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C140), 8)</f>
-        <v>0.13006702000000001</v>
-      </c>
-      <c r="J140" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J140" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-4.3879799999999858E-3</v>
-      </c>
-      <c r="K140" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K140" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>7.4117000000001321E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M140" s="66">
         <v>13.500904695864799</v>
@@ -12497,9 +12528,9 @@
         <f>'Market Data'!H119</f>
         <v>49227</v>
       </c>
-      <c r="D141" s="57">
+      <c r="D141" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C141), 8)</f>
-        <v>0.12857194999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E141" s="61">
         <v>13.4497</v>
@@ -12508,25 +12539,25 @@
         <f t="shared" si="5"/>
         <v>0.13449700000000001</v>
       </c>
-      <c r="G141" s="65">
+      <c r="G141" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>5.925050000000015E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H141" s="46">
         <f>'Market Data'!K119</f>
         <v>49227</v>
       </c>
-      <c r="I141" s="57">
+      <c r="I141" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C141), 8)</f>
-        <v>0.12938583000000001</v>
-      </c>
-      <c r="J141" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J141" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-5.1111699999999982E-3</v>
-      </c>
-      <c r="K141" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K141" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>8.1388000000001681E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M141" s="66">
         <v>13.496129076240098</v>
@@ -12541,9 +12572,9 @@
         <f>'Market Data'!H120</f>
         <v>49319</v>
       </c>
-      <c r="D142" s="57">
+      <c r="D142" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C142), 8)</f>
-        <v>0.12781804999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E142" s="61">
         <v>13.4559</v>
@@ -12552,25 +12583,25 @@
         <f t="shared" si="5"/>
         <v>0.13455899999999998</v>
       </c>
-      <c r="G142" s="65">
+      <c r="G142" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>6.7409499999999956E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H142" s="46">
         <f>'Market Data'!K120</f>
         <v>49319</v>
       </c>
-      <c r="I142" s="57">
+      <c r="I142" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C142), 8)</f>
-        <v>0.12870462999999999</v>
-      </c>
-      <c r="J142" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J142" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-5.8543699999999976E-3</v>
-      </c>
-      <c r="K142" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K142" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>8.8657999999999793E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M142" s="66">
         <v>13.491641905581201</v>
@@ -12585,9 +12616,9 @@
         <f>'Market Data'!H121</f>
         <v>49409</v>
       </c>
-      <c r="D143" s="57">
+      <c r="D143" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C143), 8)</f>
-        <v>0.12708053999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E143" s="61">
         <v>13.4617</v>
@@ -12596,25 +12627,25 @@
         <f t="shared" si="5"/>
         <v>0.13461700000000001</v>
       </c>
-      <c r="G143" s="65">
+      <c r="G143" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>7.5364600000000226E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H143" s="46">
         <f>'Market Data'!K121</f>
         <v>49409</v>
       </c>
-      <c r="I143" s="57">
+      <c r="I143" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C143), 8)</f>
-        <v>0.12803824999999999</v>
-      </c>
-      <c r="J143" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J143" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-6.5787500000000221E-3</v>
-      </c>
-      <c r="K143" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K143" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>9.5771000000000051E-4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M143" s="66">
         <v>13.487086603827999</v>
@@ -12629,9 +12660,9 @@
         <f>'Market Data'!H122</f>
         <v>49500</v>
       </c>
-      <c r="D144" s="57">
+      <c r="D144" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C144), 8)</f>
-        <v>0.12633483000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E144" s="61">
         <v>13.471500000000001</v>
@@ -12640,25 +12671,25 @@
         <f t="shared" si="5"/>
         <v>0.134715</v>
       </c>
-      <c r="G144" s="65">
+      <c r="G144" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>8.3801699999999923E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H144" s="46">
         <f>'Market Data'!K122</f>
         <v>49500</v>
       </c>
-      <c r="I144" s="57">
+      <c r="I144" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C144), 8)</f>
-        <v>0.12736446000000001</v>
-      </c>
-      <c r="J144" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J144" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-7.3505399999999887E-3</v>
-      </c>
-      <c r="K144" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K144" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.0296300000000036E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M144" s="66">
         <v>13.482549140521998</v>
@@ -12673,9 +12704,9 @@
         <f>'Market Data'!H123</f>
         <v>49592</v>
       </c>
-      <c r="D145" s="57">
+      <c r="D145" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C145), 8)</f>
-        <v>0.12558093000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E145" s="61">
         <v>13.476100000000001</v>
@@ -12684,25 +12715,25 @@
         <f t="shared" si="5"/>
         <v>0.13476100000000002</v>
       </c>
-      <c r="G145" s="65">
+      <c r="G145" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>9.1800700000000124E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H145" s="46">
         <f>'Market Data'!K123</f>
         <v>49592</v>
       </c>
-      <c r="I145" s="57">
+      <c r="I145" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C145), 8)</f>
-        <v>0.12668325999999999</v>
-      </c>
-      <c r="J145" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J145" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-8.0777400000000277E-3</v>
-      </c>
-      <c r="K145" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K145" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.1023299999999847E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M145" s="66">
         <v>13.4781110073689</v>
@@ -12717,9 +12748,9 @@
         <f>'Market Data'!H124</f>
         <v>49684</v>
       </c>
-      <c r="D146" s="57">
+      <c r="D146" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C146), 8)</f>
-        <v>0.12482703000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E146" s="61">
         <v>13.4846</v>
@@ -12728,25 +12759,25 @@
         <f t="shared" si="5"/>
         <v>0.13484599999999999</v>
       </c>
-      <c r="G146" s="65">
+      <c r="G146" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.0018969999999988E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H146" s="46">
         <f>'Market Data'!K124</f>
         <v>49684</v>
       </c>
-      <c r="I146" s="57">
+      <c r="I146" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C146), 8)</f>
-        <v>0.12600206999999999</v>
-      </c>
-      <c r="J146" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J146" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-8.8439299999999998E-3</v>
-      </c>
-      <c r="K146" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K146" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.1750399999999883E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M146" s="66">
         <v>13.473819341881299</v>
@@ -12761,9 +12792,9 @@
         <f>'Market Data'!H125</f>
         <v>49775</v>
       </c>
-      <c r="D147" s="57">
+      <c r="D147" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C147), 8)</f>
-        <v>0.12408131999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E147" s="61">
         <v>13.4894</v>
@@ -12772,25 +12803,25 @@
         <f t="shared" si="5"/>
         <v>0.13489399999999999</v>
       </c>
-      <c r="G147" s="65">
+      <c r="G147" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.0812679999999991E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H147" s="46">
         <f>'Market Data'!K125</f>
         <v>49775</v>
       </c>
-      <c r="I147" s="57">
+      <c r="I147" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C147), 8)</f>
-        <v>0.12532827999999999</v>
-      </c>
-      <c r="J147" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J147" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-9.5657199999999998E-3</v>
-      </c>
-      <c r="K147" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K147" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.2469599999999914E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M147" s="66">
         <v>13.469567726319202</v>
@@ -12805,9 +12836,9 @@
         <f>'Market Data'!H126</f>
         <v>49866</v>
       </c>
-      <c r="D148" s="57">
+      <c r="D148" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C148), 8)</f>
-        <v>0.12333561</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E148" s="61">
         <v>13.5</v>
@@ -12816,25 +12847,25 @@
         <f t="shared" si="5"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="G148" s="65">
+      <c r="G148" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.1664390000000011E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H148" s="46">
         <f>'Market Data'!K126</f>
         <v>49866</v>
       </c>
-      <c r="I148" s="57">
+      <c r="I148" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C148), 8)</f>
-        <v>0.12465449000000001</v>
-      </c>
-      <c r="J148" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J148" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.0345510000000002E-2</v>
-      </c>
-      <c r="K148" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K148" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.3188800000000084E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M148" s="66">
         <v>13.465309199151198</v>
@@ -12849,9 +12880,9 @@
         <f>'Market Data'!H127</f>
         <v>49958</v>
       </c>
-      <c r="D149" s="57">
+      <c r="D149" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C149), 8)</f>
-        <v>0.12258171</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E149" s="61">
         <v>13.505100000000001</v>
@@ -12860,25 +12891,25 @@
         <f t="shared" si="5"/>
         <v>0.135051</v>
       </c>
-      <c r="G149" s="65">
+      <c r="G149" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.2469290000000008E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H149" s="46">
         <f>'Market Data'!K127</f>
         <v>49958</v>
       </c>
-      <c r="I149" s="57">
+      <c r="I149" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C149), 8)</f>
-        <v>0.12397329</v>
-      </c>
-      <c r="J149" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J149" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.1077710000000004E-2</v>
-      </c>
-      <c r="K149" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K149" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.3915800000000034E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M149" s="66">
         <v>13.461147436701602</v>
@@ -12893,9 +12924,9 @@
         <f>'Market Data'!H128</f>
         <v>50052</v>
       </c>
-      <c r="D150" s="57">
+      <c r="D150" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C150), 8)</f>
-        <v>0.12181142</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E150" s="61">
         <v>13.513400000000001</v>
@@ -12904,25 +12935,25 @@
         <f t="shared" si="5"/>
         <v>0.135134</v>
       </c>
-      <c r="G150" s="65">
+      <c r="G150" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.3322580000000001E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H150" s="46">
         <f>'Market Data'!K128</f>
         <v>50052</v>
       </c>
-      <c r="I150" s="57">
+      <c r="I150" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C150), 8)</f>
-        <v>0.12327729</v>
-      </c>
-      <c r="J150" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J150" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.1856710000000006E-2</v>
-      </c>
-      <c r="K150" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K150" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.4658699999999941E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M150" s="66">
         <v>13.457199300778001</v>
@@ -12937,9 +12968,9 @@
         <f>'Market Data'!H129</f>
         <v>50140</v>
       </c>
-      <c r="D151" s="57">
+      <c r="D151" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C151), 8)</f>
-        <v>0.12109029</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E151" s="61">
         <v>13.5199</v>
@@ -12948,25 +12979,25 @@
         <f t="shared" si="5"/>
         <v>0.13519899999999999</v>
       </c>
-      <c r="G151" s="65">
+      <c r="G151" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.4108709999999983E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H151" s="46">
         <f>'Market Data'!K129</f>
         <v>50140</v>
       </c>
-      <c r="I151" s="57">
+      <c r="I151" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C151), 8)</f>
-        <v>0.12262571</v>
-      </c>
-      <c r="J151" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J151" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.2573289999999987E-2</v>
-      </c>
-      <c r="K151" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K151" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.5354199999999957E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M151" s="66">
         <v>13.453189538983501</v>
@@ -12981,9 +13012,9 @@
         <f>'Market Data'!H130</f>
         <v>50231</v>
       </c>
-      <c r="D152" s="57">
+      <c r="D152" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C152), 8)</f>
-        <v>0.12034459</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E152" s="61">
         <v>13.5303</v>
@@ -12992,25 +13023,25 @@
         <f t="shared" si="5"/>
         <v>0.13530300000000001</v>
       </c>
-      <c r="G152" s="65">
+      <c r="G152" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.4958410000000005E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H152" s="46">
         <f>'Market Data'!K130</f>
         <v>50231</v>
       </c>
-      <c r="I152" s="57">
+      <c r="I152" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C152), 8)</f>
-        <v>0.12195192000000001</v>
-      </c>
-      <c r="J152" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J152" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.3351080000000001E-2</v>
-      </c>
-      <c r="K152" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K152" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.607330000000004E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M152" s="66">
         <v>13.449200954794099</v>
@@ -13025,9 +13056,9 @@
         <f>'Market Data'!H131</f>
         <v>50325</v>
       </c>
-      <c r="D153" s="57">
+      <c r="D153" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C153), 8)</f>
-        <v>0.11957429999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E153" s="61">
         <v>13.536300000000001</v>
@@ -13036,25 +13067,25 @@
         <f t="shared" si="5"/>
         <v>0.13536300000000001</v>
       </c>
-      <c r="G153" s="65">
+      <c r="G153" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.5788700000000017E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H153" s="46">
         <f>'Market Data'!K131</f>
         <v>50325</v>
       </c>
-      <c r="I153" s="57">
+      <c r="I153" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C153), 8)</f>
-        <v>0.12125592</v>
-      </c>
-      <c r="J153" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J153" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.4107080000000008E-2</v>
-      </c>
-      <c r="K153" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K153" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.6816200000000087E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M153" s="66">
         <v>13.4452040937317</v>
@@ -13069,9 +13100,9 @@
         <f>'Market Data'!H132</f>
         <v>50416</v>
       </c>
-      <c r="D154" s="57">
+      <c r="D154" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C154), 8)</f>
-        <v>0.11882859</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E154" s="61">
         <v>13.5465</v>
@@ -13080,25 +13111,25 @@
         <f t="shared" si="5"/>
         <v>0.135465</v>
       </c>
-      <c r="G154" s="65">
+      <c r="G154" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.6636410000000004E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H154" s="46">
         <f>'Market Data'!K132</f>
         <v>50416</v>
       </c>
-      <c r="I154" s="57">
+      <c r="I154" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C154), 8)</f>
-        <v>0.12058213</v>
-      </c>
-      <c r="J154" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J154" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.4882870000000006E-2</v>
-      </c>
-      <c r="K154" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K154" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.7535399999999979E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M154" s="66">
         <v>13.4417098528744</v>
@@ -13113,9 +13144,9 @@
         <f>'Market Data'!H133</f>
         <v>50507</v>
       </c>
-      <c r="D155" s="57">
+      <c r="D155" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C155), 8)</f>
-        <v>0.11808288</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E155" s="61">
         <v>13.5535</v>
@@ -13124,25 +13155,25 @@
         <f t="shared" si="5"/>
         <v>0.13553499999999999</v>
       </c>
-      <c r="G155" s="65">
+      <c r="G155" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.7452119999999988E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H155" s="46">
         <f>'Market Data'!K133</f>
         <v>50507</v>
       </c>
-      <c r="I155" s="57">
+      <c r="I155" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C155), 8)</f>
-        <v>0.11990834</v>
-      </c>
-      <c r="J155" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J155" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.5626659999999987E-2</v>
-      </c>
-      <c r="K155" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K155" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.825460000000001E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M155" s="66">
         <v>13.437869414293898</v>
@@ -13157,9 +13188,9 @@
         <f>'Market Data'!H134</f>
         <v>50598</v>
       </c>
-      <c r="D156" s="57">
+      <c r="D156" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$5, $D$28, $D$6, C156), 8)</f>
-        <v>0.11733717</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E156" s="63">
         <v>13.5557</v>
@@ -13168,25 +13199,25 @@
         <f t="shared" si="5"/>
         <v>0.13555700000000001</v>
       </c>
-      <c r="G156" s="65">
+      <c r="G156" s="65" t="e">
         <f t="shared" si="6"/>
-        <v>1.8219830000000006E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H156" s="46">
         <f>'Market Data'!K134</f>
         <v>50598</v>
       </c>
-      <c r="I156" s="57">
+      <c r="I156" s="57" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($I$5, $I$28, $I$6, C156), 8)</f>
-        <v>0.11923454999999999</v>
-      </c>
-      <c r="J156" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J156" s="58" t="e">
         <f t="shared" si="7"/>
-        <v>-1.6322450000000016E-2</v>
-      </c>
-      <c r="K156" s="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K156" s="58" t="e">
         <f t="shared" si="8"/>
-        <v>1.8973799999999902E-3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M156" s="67">
         <v>13.4378265789386</v>
@@ -13214,8 +13245,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13231,14 +13262,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:10" ht="13.5" thickBot="1">
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="3:10" ht="13.5" thickBot="1"/>
     <row r="3" spans="3:10" ht="13.5" thickBot="1">
@@ -13299,20 +13330,20 @@
         <v>61</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="72" t="s">
         <v>63</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="72" t="s">
         <v>33</v>
@@ -13320,26 +13351,26 @@
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="72" t="s">
         <v>66</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="3:10">
       <c r="C15" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="72" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="3:10">
@@ -13352,55 +13383,55 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="72" t="s">
         <v>73</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="72" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="72" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="72" t="s">
         <v>79</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="72" t="s">
         <v>81</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="73">
         <f>D7</f>
@@ -13412,7 +13443,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="13.5" thickBot="1">
@@ -13455,9 +13486,9 @@
         <f>'Market Data'!AB9</f>
         <v>39416</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D32" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C32), 8)</f>
-        <v>8.82989E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F32" s="48"/>
       <c r="G32" s="50"/>
@@ -13468,9 +13499,9 @@
         <f>'Market Data'!AB10</f>
         <v>39507</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C33), 8)</f>
-        <v>9.13022E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="50"/>
@@ -13481,9 +13512,9 @@
         <f>'Market Data'!AB11</f>
         <v>39598</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C34), 8)</f>
-        <v>9.4392309999999993E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="50"/>
@@ -13494,9 +13525,9 @@
         <f>'Market Data'!AB12</f>
         <v>39689</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D35" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C35), 8)</f>
-        <v>9.723772E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="50"/>
@@ -13507,9 +13538,9 @@
         <f>'Market Data'!AB13</f>
         <v>39780</v>
       </c>
-      <c r="D36" s="97">
+      <c r="D36" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C36), 8)</f>
-        <v>0.10141534000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="50"/>
@@ -13520,9 +13551,9 @@
         <f>'Market Data'!AB14</f>
         <v>39871</v>
       </c>
-      <c r="D37" s="97">
+      <c r="D37" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C37), 8)</f>
-        <v>0.10559296</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="50"/>
@@ -13533,9 +13564,9 @@
         <f>'Market Data'!AB15</f>
         <v>39962</v>
       </c>
-      <c r="D38" s="97">
+      <c r="D38" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C38), 8)</f>
-        <v>0.10977058000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F38" s="49"/>
       <c r="G38" s="50"/>
@@ -13546,9 +13577,9 @@
         <f>'Market Data'!AB16</f>
         <v>40056</v>
       </c>
-      <c r="D39" s="97">
+      <c r="D39" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C39), 8)</f>
-        <v>0.1133807</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -13559,9 +13590,9 @@
         <f>'Market Data'!AB17</f>
         <v>40147</v>
       </c>
-      <c r="D40" s="97">
+      <c r="D40" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C40), 8)</f>
-        <v>0.11297429</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F40" s="49"/>
       <c r="G40" s="50"/>
@@ -13572,9 +13603,9 @@
         <f>'Market Data'!AB18</f>
         <v>40235</v>
       </c>
-      <c r="D41" s="97">
+      <c r="D41" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C41), 8)</f>
-        <v>0.11258129</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F41" s="49"/>
       <c r="G41" s="50"/>
@@ -13585,9 +13616,9 @@
         <f>'Market Data'!AB19</f>
         <v>40329</v>
       </c>
-      <c r="D42" s="97">
+      <c r="D42" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C42), 8)</f>
-        <v>0.11216149</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="50"/>
@@ -13598,9 +13629,9 @@
         <f>'Market Data'!AB20</f>
         <v>40420</v>
       </c>
-      <c r="D43" s="97">
+      <c r="D43" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C43), 8)</f>
-        <v>0.11171635000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
@@ -13611,9 +13642,9 @@
         <f>'Market Data'!AB21</f>
         <v>40512</v>
       </c>
-      <c r="D44" s="97">
+      <c r="D44" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C44), 8)</f>
-        <v>0.11105087</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F44" s="49"/>
       <c r="G44" s="50"/>
@@ -13624,9 +13655,9 @@
         <f>'Market Data'!AB22</f>
         <v>40602</v>
       </c>
-      <c r="D45" s="97">
+      <c r="D45" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C45), 8)</f>
-        <v>0.11039986</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F45" s="49"/>
       <c r="G45" s="50"/>
@@ -13637,9 +13668,9 @@
         <f>'Market Data'!AB23</f>
         <v>40693</v>
       </c>
-      <c r="D46" s="97">
+      <c r="D46" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C46), 8)</f>
-        <v>0.10974161</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F46" s="49"/>
       <c r="G46" s="50"/>
@@ -13650,9 +13681,9 @@
         <f>'Market Data'!AB24</f>
         <v>40785</v>
       </c>
-      <c r="D47" s="97">
+      <c r="D47" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C47), 8)</f>
-        <v>0.1093316</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="50"/>
@@ -13663,9 +13694,9 @@
         <f>'Market Data'!AB25</f>
         <v>40877</v>
       </c>
-      <c r="D48" s="97">
+      <c r="D48" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C48), 8)</f>
-        <v>0.11034486</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F48" s="49"/>
       <c r="G48" s="50"/>
@@ -13676,9 +13707,9 @@
         <f>'Market Data'!AB26</f>
         <v>40968</v>
       </c>
-      <c r="D49" s="97">
+      <c r="D49" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C49), 8)</f>
-        <v>0.11134711</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="50"/>
@@ -13689,9 +13720,9 @@
         <f>'Market Data'!AB27</f>
         <v>41059</v>
       </c>
-      <c r="D50" s="97">
+      <c r="D50" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C50), 8)</f>
-        <v>0.11234936</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F50" s="49"/>
       <c r="G50" s="50"/>
@@ -13702,9 +13733,9 @@
         <f>'Market Data'!AB28</f>
         <v>41151</v>
       </c>
-      <c r="D51" s="97">
+      <c r="D51" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C51), 8)</f>
-        <v>0.11307459</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F51" s="49"/>
       <c r="G51" s="50"/>
@@ -13715,9 +13746,9 @@
         <f>'Market Data'!AB29</f>
         <v>41243</v>
       </c>
-      <c r="D52" s="97">
+      <c r="D52" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C52), 8)</f>
-        <v>0.11219505</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F52" s="49"/>
       <c r="G52" s="50"/>
@@ -13728,9 +13759,9 @@
         <f>'Market Data'!AB30</f>
         <v>41333</v>
       </c>
-      <c r="D53" s="97">
+      <c r="D53" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C53), 8)</f>
-        <v>0.11133463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F53" s="49"/>
       <c r="G53" s="50"/>
@@ -13741,9 +13772,9 @@
         <f>'Market Data'!AB31</f>
         <v>41424</v>
       </c>
-      <c r="D54" s="97">
+      <c r="D54" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C54), 8)</f>
-        <v>0.11046465</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F54" s="49"/>
       <c r="G54" s="50"/>
@@ -13754,9 +13785,9 @@
         <f>'Market Data'!AB32</f>
         <v>41516</v>
       </c>
-      <c r="D55" s="97">
+      <c r="D55" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C55), 8)</f>
-        <v>0.10958511</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F55" s="49"/>
       <c r="G55" s="50"/>
@@ -13767,9 +13798,9 @@
         <f>'Market Data'!AB33</f>
         <v>41607</v>
       </c>
-      <c r="D56" s="97">
+      <c r="D56" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C56), 8)</f>
-        <v>0.10871512999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="50"/>
@@ -13780,9 +13811,9 @@
         <f>'Market Data'!AB34</f>
         <v>41698</v>
       </c>
-      <c r="D57" s="97">
+      <c r="D57" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C57), 8)</f>
-        <v>0.10784516</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F57" s="49"/>
       <c r="G57" s="50"/>
@@ -13793,9 +13824,9 @@
         <f>'Market Data'!AB35</f>
         <v>41789</v>
       </c>
-      <c r="D58" s="97">
+      <c r="D58" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C58), 8)</f>
-        <v>0.10697518</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F58" s="49"/>
       <c r="G58" s="50"/>
@@ -13806,9 +13837,9 @@
         <f>'Market Data'!AB36</f>
         <v>41880</v>
       </c>
-      <c r="D59" s="97">
+      <c r="D59" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C59), 8)</f>
-        <v>0.10628565</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F59" s="49"/>
       <c r="G59" s="50"/>
@@ -13819,9 +13850,9 @@
         <f>'Market Data'!AB37</f>
         <v>41971</v>
       </c>
-      <c r="D60" s="97">
+      <c r="D60" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C60), 8)</f>
-        <v>0.10690852000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F60" s="49"/>
       <c r="G60" s="50"/>
@@ -13832,9 +13863,9 @@
         <f>'Market Data'!AB38</f>
         <v>42062</v>
       </c>
-      <c r="D61" s="97">
+      <c r="D61" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C61), 8)</f>
-        <v>0.10753139</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F61" s="49"/>
       <c r="G61" s="50"/>
@@ -13845,9 +13876,9 @@
         <f>'Market Data'!AB39</f>
         <v>42153</v>
       </c>
-      <c r="D62" s="97">
+      <c r="D62" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C62), 8)</f>
-        <v>0.10815426</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F62" s="49"/>
       <c r="G62" s="50"/>
@@ -13858,9 +13889,9 @@
         <f>'Market Data'!AB40</f>
         <v>42247</v>
       </c>
-      <c r="D63" s="97">
+      <c r="D63" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C63), 8)</f>
-        <v>0.10879766</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F63" s="49"/>
       <c r="G63" s="50"/>
@@ -13871,9 +13902,9 @@
         <f>'Market Data'!AB41</f>
         <v>42338</v>
       </c>
-      <c r="D64" s="97">
+      <c r="D64" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C64), 8)</f>
-        <v>0.10942053</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F64" s="49"/>
       <c r="G64" s="50"/>
@@ -13884,9 +13915,9 @@
         <f>'Market Data'!AB42</f>
         <v>42429</v>
       </c>
-      <c r="D65" s="97">
+      <c r="D65" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C65), 8)</f>
-        <v>0.1100434</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F65" s="49"/>
       <c r="G65" s="50"/>
@@ -13897,9 +13928,9 @@
         <f>'Market Data'!AB43</f>
         <v>42520</v>
       </c>
-      <c r="D66" s="97">
+      <c r="D66" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C66), 8)</f>
-        <v>0.11066627</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F66" s="49"/>
       <c r="G66" s="50"/>
@@ -13910,9 +13941,9 @@
         <f>'Market Data'!AB44</f>
         <v>42612</v>
       </c>
-      <c r="D67" s="97">
+      <c r="D67" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C67), 8)</f>
-        <v>0.11129598</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="50"/>
@@ -13923,9 +13954,9 @@
         <f>'Market Data'!AB45</f>
         <v>42704</v>
       </c>
-      <c r="D68" s="97">
+      <c r="D68" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C68), 8)</f>
-        <v>0.11192568999999999</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F68" s="49"/>
       <c r="G68" s="50"/>
@@ -13936,9 +13967,9 @@
         <f>'Market Data'!AB46</f>
         <v>42794</v>
       </c>
-      <c r="D69" s="97">
+      <c r="D69" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C69), 8)</f>
-        <v>0.11254172</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F69" s="49"/>
       <c r="G69" s="50"/>
@@ -13949,9 +13980,9 @@
         <f>'Market Data'!AB47</f>
         <v>42885</v>
       </c>
-      <c r="D70" s="97">
+      <c r="D70" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C70), 8)</f>
-        <v>0.11316459</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F70" s="49"/>
       <c r="G70" s="50"/>
@@ -13962,9 +13993,9 @@
         <f>'Market Data'!AB48</f>
         <v>42977</v>
       </c>
-      <c r="D71" s="97">
+      <c r="D71" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C71), 8)</f>
-        <v>0.1137943</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F71" s="49"/>
       <c r="G71" s="50"/>
@@ -13975,9 +14006,9 @@
         <f>'Market Data'!AB49</f>
         <v>43069</v>
       </c>
-      <c r="D72" s="97">
+      <c r="D72" s="86" t="e">
         <f>ROUND(_xll.HLV5r3.Financial.Cache.ComputeCapletVolatility($D$6,$D$29,$D$7, C72), 8)</f>
-        <v>0.11442402</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="73" spans="3:8">
@@ -14052,9 +14083,9 @@
         <f>'ATM Bootstrap'!H31</f>
         <v>39637</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="7" t="e">
         <f>'ATM Bootstrap'!I31</f>
-        <v>0.16400000000000001</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="3:8">
@@ -14078,9 +14109,9 @@
         <f>'ATM Bootstrap'!H32</f>
         <v>39639</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="e">
         <f>'ATM Bootstrap'!I32</f>
-        <v>0.16400000000000001</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="3:8">
@@ -14104,9 +14135,9 @@
         <f>'ATM Bootstrap'!H33</f>
         <v>39671</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="e">
         <f>'ATM Bootstrap'!I33</f>
-        <v>0.16400000000000001</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="3:8">
@@ -14130,9 +14161,9 @@
         <f>'ATM Bootstrap'!H35</f>
         <v>39731</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="2" t="e">
         <f>'ATM Bootstrap'!I35</f>
-        <v>0.16667692000000001</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="3:8">
@@ -14156,9 +14187,9 @@
         <f>'ATM Bootstrap'!H36</f>
         <v>39762</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="2" t="e">
         <f>'ATM Bootstrap'!I36</f>
-        <v>0.16964066</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="3:8">
@@ -14182,9 +14213,9 @@
         <f>'ATM Bootstrap'!H37</f>
         <v>39792</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="2" t="e">
         <f>'ATM Bootstrap'!I37</f>
-        <v>0.17250879</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="3:8">
